--- a/Project2/report.xlsx
+++ b/Project2/report.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Gossip</t>
   </si>
@@ -48,64 +48,10 @@
     <t>imp3D</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
     <t>Imp2D</t>
   </si>
   <si>
     <t>Imp3D</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0.994199521</t>
-  </si>
-  <si>
-    <t>2.851854079</t>
-  </si>
-  <si>
-    <t>0.686529</t>
-  </si>
-  <si>
-    <t>1.786417</t>
-  </si>
-  <si>
-    <t>2.127393</t>
-  </si>
-  <si>
-    <t>0.659016</t>
-  </si>
-  <si>
-    <t>0.124545</t>
-  </si>
-  <si>
-    <t>0.732266</t>
-  </si>
-  <si>
-    <t>1.875286</t>
-  </si>
-  <si>
-    <t>0.725892</t>
-  </si>
-  <si>
-    <t>2.499571</t>
-  </si>
-  <si>
-    <t>0.067313</t>
   </si>
 </sst>
 </file>
@@ -198,12 +144,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -212,6 +155,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -338,10 +285,11 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$3:$B$91</c:f>
-              <c:strCache>
-                <c:ptCount val="89"/>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -433,191 +381,209 @@
                   <c:v>3600</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>4100</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>4600</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
+                  <c:v>4624</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4761</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>4913</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="37">
+                  <c:v>5041</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>5100</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="39">
+                  <c:v>5184</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>5600</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="41">
                   <c:v>5832</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="42">
                   <c:v>6100</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="43">
                   <c:v>6600</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="44">
                   <c:v>6859</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="45">
                   <c:v>7100</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="46">
                   <c:v>7600</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="47">
                   <c:v>8000</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="48">
                   <c:v>8100</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="49">
                   <c:v>8600</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="50">
                   <c:v>9100</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="51">
                   <c:v>9261</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="52">
                   <c:v>9600</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="53">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="54">
                   <c:v>10100</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="55">
                   <c:v>10600</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="56">
                   <c:v>10648</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="57">
                   <c:v>11100</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="58">
                   <c:v>11600</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="59">
                   <c:v>12100</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="60">
                   <c:v>12600</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="61">
                   <c:v>13100</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="62">
                   <c:v>13600</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="63">
                   <c:v>14100</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="64">
                   <c:v>14600</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="65">
                   <c:v>15100</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="66">
                   <c:v>15600</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="67">
                   <c:v>16100</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="68">
                   <c:v>16600</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="69">
                   <c:v>17100</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="70">
                   <c:v>17600</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="71">
                   <c:v>18100</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="72">
                   <c:v>18600</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="73">
                   <c:v>19100</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="74">
                   <c:v>19600</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="75">
                   <c:v>20100</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="76">
                   <c:v>20600</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="77">
                   <c:v>21100</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="78">
                   <c:v>21600</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="79">
                   <c:v>21952</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="80">
                   <c:v>22100</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="81">
                   <c:v>24000</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="82">
                   <c:v>27100</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="83">
                   <c:v>32768</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="84">
                   <c:v>37100</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="85">
                   <c:v>42875</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="86">
                   <c:v>50653</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="87">
                   <c:v>64000</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="88">
                   <c:v>74088</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="89">
                   <c:v>85184</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="90">
                   <c:v>91125</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="91">
                   <c:v>103823</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="92">
                   <c:v>100489</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="93">
                   <c:v>205379</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="94">
                   <c:v>300763</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$91</c:f>
+              <c:f>Sheet1!$C$3:$C$97</c:f>
               <c:numCache>
                 <c:formatCode>@</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="5" formatCode="General">
                   <c:v>0.52922599999999997</c:v>
                 </c:pt>
@@ -666,58 +632,58 @@
                 <c:pt idx="29" formatCode="General">
                   <c:v>6.4956100000000001</c:v>
                 </c:pt>
-                <c:pt idx="30" formatCode="General">
+                <c:pt idx="31" formatCode="General">
                   <c:v>6.4115399999999996</c:v>
                 </c:pt>
-                <c:pt idx="31" formatCode="General">
+                <c:pt idx="32" formatCode="General">
                   <c:v>6.86388</c:v>
                 </c:pt>
-                <c:pt idx="33" formatCode="General">
+                <c:pt idx="38" formatCode="General">
                   <c:v>6.1477000000000004</c:v>
                 </c:pt>
-                <c:pt idx="34" formatCode="General">
+                <c:pt idx="40" formatCode="General">
                   <c:v>7.1146700000000003</c:v>
                 </c:pt>
-                <c:pt idx="36" formatCode="General">
+                <c:pt idx="42" formatCode="General">
                   <c:v>6.5541299999999998</c:v>
                 </c:pt>
-                <c:pt idx="37" formatCode="General">
+                <c:pt idx="43" formatCode="General">
                   <c:v>6.68879</c:v>
                 </c:pt>
-                <c:pt idx="39" formatCode="General">
+                <c:pt idx="45" formatCode="General">
                   <c:v>7.0179999999999998</c:v>
                 </c:pt>
-                <c:pt idx="40" formatCode="General">
+                <c:pt idx="46" formatCode="General">
                   <c:v>7.0697099999999997</c:v>
                 </c:pt>
-                <c:pt idx="42" formatCode="General">
+                <c:pt idx="48" formatCode="General">
                   <c:v>7.3265599999999997</c:v>
                 </c:pt>
-                <c:pt idx="44" formatCode="General">
+                <c:pt idx="50" formatCode="General">
                   <c:v>7.3402599999999998</c:v>
                 </c:pt>
-                <c:pt idx="48" formatCode="General">
+                <c:pt idx="54" formatCode="General">
                   <c:v>7.6825700000000001</c:v>
                 </c:pt>
-                <c:pt idx="51" formatCode="General">
+                <c:pt idx="57" formatCode="General">
                   <c:v>8.0677099999999999</c:v>
                 </c:pt>
-                <c:pt idx="53" formatCode="General">
+                <c:pt idx="59" formatCode="General">
                   <c:v>7.6545699999999997</c:v>
                 </c:pt>
-                <c:pt idx="55" formatCode="General">
+                <c:pt idx="61" formatCode="General">
                   <c:v>8.1456800000000005</c:v>
                 </c:pt>
-                <c:pt idx="57" formatCode="General">
+                <c:pt idx="63" formatCode="General">
                   <c:v>8.6444899999999993</c:v>
                 </c:pt>
-                <c:pt idx="59" formatCode="General">
+                <c:pt idx="65" formatCode="General">
                   <c:v>8.5376600000000007</c:v>
                 </c:pt>
-                <c:pt idx="76" formatCode="General">
+                <c:pt idx="82" formatCode="General">
                   <c:v>9.1123799999999999</c:v>
                 </c:pt>
-                <c:pt idx="78" formatCode="General">
+                <c:pt idx="84" formatCode="General">
                   <c:v>9.9929900000000007</c:v>
                 </c:pt>
               </c:numCache>
@@ -756,10 +722,11 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$3:$B$91</c:f>
-              <c:strCache>
-                <c:ptCount val="89"/>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -851,191 +818,209 @@
                   <c:v>3600</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>4100</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>4600</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
+                  <c:v>4624</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4761</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>4913</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="37">
+                  <c:v>5041</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>5100</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="39">
+                  <c:v>5184</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>5600</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="41">
                   <c:v>5832</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="42">
                   <c:v>6100</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="43">
                   <c:v>6600</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="44">
                   <c:v>6859</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="45">
                   <c:v>7100</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="46">
                   <c:v>7600</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="47">
                   <c:v>8000</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="48">
                   <c:v>8100</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="49">
                   <c:v>8600</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="50">
                   <c:v>9100</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="51">
                   <c:v>9261</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="52">
                   <c:v>9600</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="53">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="54">
                   <c:v>10100</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="55">
                   <c:v>10600</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="56">
                   <c:v>10648</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="57">
                   <c:v>11100</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="58">
                   <c:v>11600</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="59">
                   <c:v>12100</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="60">
                   <c:v>12600</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="61">
                   <c:v>13100</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="62">
                   <c:v>13600</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="63">
                   <c:v>14100</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="64">
                   <c:v>14600</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="65">
                   <c:v>15100</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="66">
                   <c:v>15600</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="67">
                   <c:v>16100</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="68">
                   <c:v>16600</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="69">
                   <c:v>17100</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="70">
                   <c:v>17600</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="71">
                   <c:v>18100</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="72">
                   <c:v>18600</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="73">
                   <c:v>19100</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="74">
                   <c:v>19600</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="75">
                   <c:v>20100</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="76">
                   <c:v>20600</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="77">
                   <c:v>21100</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="78">
                   <c:v>21600</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="79">
                   <c:v>21952</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="80">
                   <c:v>22100</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="81">
                   <c:v>24000</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="82">
                   <c:v>27100</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="83">
                   <c:v>32768</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="84">
                   <c:v>37100</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="85">
                   <c:v>42875</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="86">
                   <c:v>50653</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="87">
                   <c:v>64000</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="88">
                   <c:v>74088</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="89">
                   <c:v>85184</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="90">
                   <c:v>91125</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="91">
                   <c:v>103823</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="92">
                   <c:v>100489</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="93">
                   <c:v>205379</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="94">
                   <c:v>300763</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$91</c:f>
+              <c:f>Sheet1!$D$3:$D$97</c:f>
               <c:numCache>
                 <c:formatCode>@</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="5" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1060,119 +1045,517 @@
                 <c:pt idx="29" formatCode="General">
                   <c:v>3.4969000000000001</c:v>
                 </c:pt>
-                <c:pt idx="30" formatCode="General">
+                <c:pt idx="31" formatCode="General">
                   <c:v>3.8152300000000001</c:v>
                 </c:pt>
-                <c:pt idx="31" formatCode="General">
+                <c:pt idx="32" formatCode="General">
                   <c:v>3.8140700000000001</c:v>
                 </c:pt>
-                <c:pt idx="33" formatCode="General">
+                <c:pt idx="38" formatCode="General">
                   <c:v>4.0877100000000004</c:v>
                 </c:pt>
-                <c:pt idx="34" formatCode="General">
+                <c:pt idx="40" formatCode="General">
                   <c:v>4.1109799999999996</c:v>
                 </c:pt>
+                <c:pt idx="42" formatCode="General">
+                  <c:v>4.3894299999999999</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="General">
+                  <c:v>4.4127599999999996</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="General">
+                  <c:v>4.6531500000000001</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="General">
+                  <c:v>4.6643699999999999</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="General">
+                  <c:v>4.9554400000000003</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="General">
+                  <c:v>4.9455200000000001</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="General">
+                  <c:v>4.9771200000000002</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="General">
+                  <c:v>5.2140300000000002</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="General">
+                  <c:v>5.1852200000000002</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="General">
+                  <c:v>5.1173099999999998</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="General">
+                  <c:v>5.4143999999999997</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="General">
+                  <c:v>5.4277300000000004</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="General">
+                  <c:v>5.3865999999999996</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="General">
+                  <c:v>5.6473199999999997</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="General">
+                  <c:v>5.6406400000000003</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="General">
+                  <c:v>5.6085000000000003</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>5.8101200000000004</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="General">
+                  <c:v>5.8166399999999996</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="General">
+                  <c:v>5.8336100000000002</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="General">
+                  <c:v>5.8480100000000004</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="General">
+                  <c:v>6.0638100000000001</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="General">
+                  <c:v>6.0171099999999997</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="General">
+                  <c:v>6.0787599999999999</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="General">
+                  <c:v>6.2547199999999998</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="General">
+                  <c:v>6.2610799999999998</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="General">
+                  <c:v>6.2632700000000003</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="General">
+                  <c:v>6.5851100000000002</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="General">
+                  <c:v>6.2844100000000003</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="General">
+                  <c:v>6.4528800000000004</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="General">
+                  <c:v>6.4396199999999997</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="General">
+                  <c:v>6.4618900000000004</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="General">
+                  <c:v>6.5065400000000002</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="General">
+                  <c:v>6.6528</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="General">
+                  <c:v>6.6222700000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>imp3D</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="95"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1331</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2197</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3375</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4600</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4624</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4761</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4913</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5041</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5184</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5832</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6859</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7100</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8100</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8600</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9261</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10100</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>10600</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>10648</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>11100</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>11600</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>12100</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>12600</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>13100</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>13600</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>14100</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>14600</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>15100</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>15600</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>16100</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>16600</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>17100</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>17600</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>18100</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>18600</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>19100</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>19600</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>20100</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>20600</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>21100</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>21600</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>21952</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>22100</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>27100</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>37100</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>42875</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>50653</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>74088</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>85184</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91125</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>103823</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>100489</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>205379</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>300763</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$97</c:f>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="95"/>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>0.46867300000000001</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>0.75657200000000002</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>1.00997</c:v>
+                </c:pt>
                 <c:pt idx="36" formatCode="General">
-                  <c:v>4.3894299999999999</c:v>
-                </c:pt>
-                <c:pt idx="37" formatCode="General">
-                  <c:v>4.4127599999999996</c:v>
-                </c:pt>
-                <c:pt idx="39" formatCode="General">
-                  <c:v>4.6531500000000001</c:v>
-                </c:pt>
-                <c:pt idx="40" formatCode="General">
-                  <c:v>4.6643699999999999</c:v>
-                </c:pt>
-                <c:pt idx="42" formatCode="General">
-                  <c:v>4.9554400000000003</c:v>
-                </c:pt>
-                <c:pt idx="43" formatCode="General">
-                  <c:v>4.9455200000000001</c:v>
+                  <c:v>1.5160800000000001</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="General">
+                  <c:v>1.7073100000000001</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="General">
-                  <c:v>4.9771200000000002</c:v>
-                </c:pt>
-                <c:pt idx="46" formatCode="General">
-                  <c:v>5.2140300000000002</c:v>
-                </c:pt>
-                <c:pt idx="48" formatCode="General">
-                  <c:v>5.1852200000000002</c:v>
-                </c:pt>
-                <c:pt idx="49" formatCode="General">
-                  <c:v>5.1173099999999998</c:v>
+                  <c:v>1.7757499999999999</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="General">
+                  <c:v>2.0869</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="General">
-                  <c:v>5.4143999999999997</c:v>
-                </c:pt>
-                <c:pt idx="52" formatCode="General">
-                  <c:v>5.4277300000000004</c:v>
-                </c:pt>
-                <c:pt idx="53" formatCode="General">
-                  <c:v>5.3865999999999996</c:v>
-                </c:pt>
-                <c:pt idx="54" formatCode="General">
-                  <c:v>5.6473199999999997</c:v>
-                </c:pt>
-                <c:pt idx="55" formatCode="General">
-                  <c:v>5.6406400000000003</c:v>
+                  <c:v>2.0419900000000002</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="General">
-                  <c:v>5.6085000000000003</c:v>
-                </c:pt>
-                <c:pt idx="57" formatCode="General">
-                  <c:v>5.8101200000000004</c:v>
-                </c:pt>
-                <c:pt idx="58" formatCode="General">
-                  <c:v>5.8166399999999996</c:v>
-                </c:pt>
-                <c:pt idx="59" formatCode="General">
-                  <c:v>5.8336100000000002</c:v>
-                </c:pt>
-                <c:pt idx="60" formatCode="General">
-                  <c:v>5.8480100000000004</c:v>
-                </c:pt>
-                <c:pt idx="61" formatCode="General">
-                  <c:v>6.0638100000000001</c:v>
-                </c:pt>
-                <c:pt idx="62" formatCode="General">
-                  <c:v>6.0171099999999997</c:v>
-                </c:pt>
-                <c:pt idx="63" formatCode="General">
-                  <c:v>6.0787599999999999</c:v>
-                </c:pt>
-                <c:pt idx="64" formatCode="General">
-                  <c:v>6.2547199999999998</c:v>
-                </c:pt>
-                <c:pt idx="65" formatCode="General">
-                  <c:v>6.2610799999999998</c:v>
-                </c:pt>
-                <c:pt idx="66" formatCode="General">
-                  <c:v>6.2632700000000003</c:v>
-                </c:pt>
-                <c:pt idx="67" formatCode="General">
-                  <c:v>6.5851100000000002</c:v>
-                </c:pt>
-                <c:pt idx="68" formatCode="General">
-                  <c:v>6.2844100000000003</c:v>
-                </c:pt>
-                <c:pt idx="69" formatCode="General">
-                  <c:v>6.4528800000000004</c:v>
-                </c:pt>
-                <c:pt idx="70" formatCode="General">
-                  <c:v>6.4396199999999997</c:v>
-                </c:pt>
-                <c:pt idx="71" formatCode="General">
-                  <c:v>6.4618900000000004</c:v>
-                </c:pt>
-                <c:pt idx="72" formatCode="General">
-                  <c:v>6.5065400000000002</c:v>
-                </c:pt>
-                <c:pt idx="74" formatCode="General">
-                  <c:v>6.6528</c:v>
-                </c:pt>
-                <c:pt idx="75" formatCode="General">
-                  <c:v>6.6222700000000003</c:v>
+                  <c:v>2.3207399999999998</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="General">
+                  <c:v>3.03931</c:v>
+                </c:pt>
+                <c:pt idx="83" formatCode="General">
+                  <c:v>3.5956800000000002</c:v>
+                </c:pt>
+                <c:pt idx="85" formatCode="General">
+                  <c:v>3.8520599999999998</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="General">
+                  <c:v>3.97126</c:v>
+                </c:pt>
+                <c:pt idx="87" formatCode="General">
+                  <c:v>4.2911099999999998</c:v>
+                </c:pt>
+                <c:pt idx="88" formatCode="General">
+                  <c:v>4.4571699999999996</c:v>
+                </c:pt>
+                <c:pt idx="89" formatCode="General">
+                  <c:v>4.5895700000000001</c:v>
+                </c:pt>
+                <c:pt idx="90" formatCode="General">
+                  <c:v>4.6817700000000002</c:v>
+                </c:pt>
+                <c:pt idx="91" formatCode="General">
+                  <c:v>4.7963300000000002</c:v>
+                </c:pt>
+                <c:pt idx="93" formatCode="General">
+                  <c:v>5.67401</c:v>
+                </c:pt>
+                <c:pt idx="94" formatCode="General">
+                  <c:v>6.59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1181,7 +1564,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:v>full</c:v>
           </c:tx>
@@ -1210,10 +1593,11 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$3:$B$91</c:f>
-              <c:strCache>
-                <c:ptCount val="89"/>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1305,191 +1689,209 @@
                   <c:v>3600</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>4100</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>4600</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
+                  <c:v>4624</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4761</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>4913</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="37">
+                  <c:v>5041</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>5100</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="39">
+                  <c:v>5184</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>5600</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="41">
                   <c:v>5832</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="42">
                   <c:v>6100</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="43">
                   <c:v>6600</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="44">
                   <c:v>6859</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="45">
                   <c:v>7100</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="46">
                   <c:v>7600</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="47">
                   <c:v>8000</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="48">
                   <c:v>8100</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="49">
                   <c:v>8600</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="50">
                   <c:v>9100</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="51">
                   <c:v>9261</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="52">
                   <c:v>9600</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="53">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="54">
                   <c:v>10100</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="55">
                   <c:v>10600</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="56">
                   <c:v>10648</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="57">
                   <c:v>11100</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="58">
                   <c:v>11600</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="59">
                   <c:v>12100</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="60">
                   <c:v>12600</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="61">
                   <c:v>13100</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="62">
                   <c:v>13600</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="63">
                   <c:v>14100</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="64">
                   <c:v>14600</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="65">
                   <c:v>15100</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="66">
                   <c:v>15600</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="67">
                   <c:v>16100</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="68">
                   <c:v>16600</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="69">
                   <c:v>17100</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="70">
                   <c:v>17600</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="71">
                   <c:v>18100</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="72">
                   <c:v>18600</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="73">
                   <c:v>19100</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="74">
                   <c:v>19600</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="75">
                   <c:v>20100</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="76">
                   <c:v>20600</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="77">
                   <c:v>21100</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="78">
                   <c:v>21600</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="79">
                   <c:v>21952</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="80">
                   <c:v>22100</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="81">
                   <c:v>24000</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="82">
                   <c:v>27100</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="83">
                   <c:v>32768</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="84">
                   <c:v>37100</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="85">
                   <c:v>42875</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="86">
                   <c:v>50653</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="87">
                   <c:v>64000</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="88">
                   <c:v>74088</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="89">
                   <c:v>85184</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="90">
                   <c:v>91125</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="91">
                   <c:v>103823</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="92">
                   <c:v>100489</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="93">
                   <c:v>205379</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="94">
                   <c:v>300763</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$91</c:f>
+              <c:f>Sheet1!$E$3:$E$97</c:f>
               <c:numCache>
                 <c:formatCode>@</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="5" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1513,385 +1915,6 @@
                 </c:pt>
                 <c:pt idx="23" formatCode="General">
                   <c:v>1.61602</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>imp3D</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$3:$B$91</c:f>
-              <c:strCache>
-                <c:ptCount val="89"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>850</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1331</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1350</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1850</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2100</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2197</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2600</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3100</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3375</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3600</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4100</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4600</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4913</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>5100</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>5600</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>5832</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>6100</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>6600</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>6859</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>7100</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>7600</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>8100</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>8600</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>9100</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>9261</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>9600</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>10100</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>10600</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>10648</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>11100</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>11600</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>12100</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>12600</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>13100</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>13600</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>14100</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>14600</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>15100</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>15600</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>16100</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>16600</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>17100</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>17600</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>18100</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>18600</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>19100</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>19600</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>20100</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>20600</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>21100</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>21600</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>21952</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>22100</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>24000</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>27100</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>32768</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>37100</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>42875</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>50653</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>64000</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>74088</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>85184</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>91125</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>103823</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>100489</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>205379</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>300763</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$3:$F$91</c:f>
-              <c:numCache>
-                <c:formatCode>@</c:formatCode>
-                <c:ptCount val="89"/>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="General">
-                  <c:v>0.46867300000000001</c:v>
-                </c:pt>
-                <c:pt idx="25" formatCode="General">
-                  <c:v>0.75657200000000002</c:v>
-                </c:pt>
-                <c:pt idx="28" formatCode="General">
-                  <c:v>1.00997</c:v>
-                </c:pt>
-                <c:pt idx="32" formatCode="General">
-                  <c:v>1.5160800000000001</c:v>
-                </c:pt>
-                <c:pt idx="35" formatCode="General">
-                  <c:v>1.7073100000000001</c:v>
-                </c:pt>
-                <c:pt idx="38" formatCode="General">
-                  <c:v>1.7757499999999999</c:v>
-                </c:pt>
-                <c:pt idx="41" formatCode="General">
-                  <c:v>2.0869</c:v>
-                </c:pt>
-                <c:pt idx="45" formatCode="General">
-                  <c:v>2.0419900000000002</c:v>
-                </c:pt>
-                <c:pt idx="50" formatCode="General">
-                  <c:v>2.3207399999999998</c:v>
-                </c:pt>
-                <c:pt idx="73" formatCode="General">
-                  <c:v>3.03931</c:v>
-                </c:pt>
-                <c:pt idx="77" formatCode="General">
-                  <c:v>3.5956800000000002</c:v>
-                </c:pt>
-                <c:pt idx="79" formatCode="General">
-                  <c:v>3.8520599999999998</c:v>
-                </c:pt>
-                <c:pt idx="80" formatCode="General">
-                  <c:v>3.97126</c:v>
-                </c:pt>
-                <c:pt idx="81" formatCode="General">
-                  <c:v>4.2911099999999998</c:v>
-                </c:pt>
-                <c:pt idx="82" formatCode="General">
-                  <c:v>4.4571699999999996</c:v>
-                </c:pt>
-                <c:pt idx="83" formatCode="General">
-                  <c:v>4.5895700000000001</c:v>
-                </c:pt>
-                <c:pt idx="84" formatCode="General">
-                  <c:v>4.6817700000000002</c:v>
-                </c:pt>
-                <c:pt idx="85" formatCode="General">
-                  <c:v>4.7963300000000002</c:v>
-                </c:pt>
-                <c:pt idx="87" formatCode="General">
-                  <c:v>5.67401</c:v>
-                </c:pt>
-                <c:pt idx="88" formatCode="General">
-                  <c:v>6.59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1908,11 +1931,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="553223648"/>
-        <c:axId val="553224432"/>
+        <c:axId val="353146664"/>
+        <c:axId val="353144704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="553223648"/>
+        <c:axId val="353146664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2011,7 +2034,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553224432"/>
+        <c:crossAx val="353144704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2019,7 +2042,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="553224432"/>
+        <c:axId val="353144704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2126,7 +2149,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553223648"/>
+        <c:crossAx val="353146664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2292,334 +2315,6 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$3:$B$91</c:f>
-              <c:strCache>
-                <c:ptCount val="89"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>850</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1331</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1350</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1850</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2100</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2197</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2600</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3100</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3375</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3600</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4100</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4600</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4913</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>5100</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>5600</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>5832</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>6100</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>6600</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>6859</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>7100</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>7600</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>8100</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>8600</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>9100</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>9261</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>9600</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>10100</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>10600</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>10648</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>11100</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>11600</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>12100</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>12600</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>13100</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>13600</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>14100</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>14600</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>15100</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>15600</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>16100</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>16600</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>17100</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>17600</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>18100</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>18600</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>19100</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>19600</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>20100</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>20600</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>21100</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>21600</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>21952</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>22100</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>24000</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>27100</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>32768</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>37100</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>42875</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>50653</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>64000</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>74088</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>85184</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>91125</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>103823</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>100489</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>205379</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>300763</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$H$3:$H$91</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="89"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>2D</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
@@ -2642,10 +2337,11 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$3:$B$91</c:f>
-              <c:strCache>
-                <c:ptCount val="89"/>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -2737,205 +2433,277 @@
                   <c:v>3600</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>4100</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>4600</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
+                  <c:v>4624</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4761</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>4913</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="37">
+                  <c:v>5041</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>5100</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="39">
+                  <c:v>5184</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>5600</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="41">
                   <c:v>5832</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="42">
                   <c:v>6100</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="43">
                   <c:v>6600</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="44">
                   <c:v>6859</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="45">
                   <c:v>7100</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="46">
                   <c:v>7600</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="47">
                   <c:v>8000</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="48">
                   <c:v>8100</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="49">
                   <c:v>8600</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="50">
                   <c:v>9100</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="51">
                   <c:v>9261</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="52">
                   <c:v>9600</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="53">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="54">
                   <c:v>10100</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="55">
                   <c:v>10600</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="56">
                   <c:v>10648</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="57">
                   <c:v>11100</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="58">
                   <c:v>11600</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="59">
                   <c:v>12100</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="60">
                   <c:v>12600</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="61">
                   <c:v>13100</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="62">
                   <c:v>13600</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="63">
                   <c:v>14100</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="64">
                   <c:v>14600</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="65">
                   <c:v>15100</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="66">
                   <c:v>15600</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="67">
                   <c:v>16100</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="68">
                   <c:v>16600</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="69">
                   <c:v>17100</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="70">
                   <c:v>17600</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="71">
                   <c:v>18100</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="72">
                   <c:v>18600</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="73">
                   <c:v>19100</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="74">
                   <c:v>19600</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="75">
                   <c:v>20100</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="76">
                   <c:v>20600</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="77">
                   <c:v>21100</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="78">
                   <c:v>21600</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="79">
                   <c:v>21952</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="80">
                   <c:v>22100</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="81">
                   <c:v>24000</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="82">
                   <c:v>27100</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="83">
                   <c:v>32768</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="84">
                   <c:v>37100</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="85">
                   <c:v>42875</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="86">
                   <c:v>50653</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="87">
                   <c:v>64000</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="88">
                   <c:v>74088</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="89">
                   <c:v>85184</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="90">
                   <c:v>91125</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="91">
                   <c:v>103823</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="92">
                   <c:v>100489</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="93">
                   <c:v>205379</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="94">
                   <c:v>300763</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$3:$I$91</c:f>
+              <c:f>Sheet1!$H$3:$H$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="89"/>
-                <c:pt idx="1">
+                <c:ptCount val="95"/>
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0</c:v>
+                <c:pt idx="8">
+                  <c:v>0.1067754578738507</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5783511508600766</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.40230747542291845</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.4746670841762835</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.70092677647936974</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.76368587293136914</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1597388920787564</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.99419952099999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0841543963808951</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1433147972274107</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.378988593837476</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.6899460937779933</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.5616901215847865</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.8228818611196314</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.1131416066547066</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.5854014166247157</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.6009339086600116</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.3666897244867378</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.4458936862395517</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.8518540790000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2973,10 +2741,11 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$3:$B$91</c:f>
-              <c:strCache>
-                <c:ptCount val="89"/>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -3068,205 +2837,277 @@
                   <c:v>3600</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>4100</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>4600</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
+                  <c:v>4624</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4761</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>4913</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="37">
+                  <c:v>5041</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>5100</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="39">
+                  <c:v>5184</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>5600</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="41">
                   <c:v>5832</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="42">
                   <c:v>6100</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="43">
                   <c:v>6600</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="44">
                   <c:v>6859</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="45">
                   <c:v>7100</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="46">
                   <c:v>7600</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="47">
                   <c:v>8000</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="48">
                   <c:v>8100</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="49">
                   <c:v>8600</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="50">
                   <c:v>9100</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="51">
                   <c:v>9261</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="52">
                   <c:v>9600</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="53">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="54">
                   <c:v>10100</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="55">
                   <c:v>10600</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="56">
                   <c:v>10648</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="57">
                   <c:v>11100</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="58">
                   <c:v>11600</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="59">
                   <c:v>12100</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="60">
                   <c:v>12600</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="61">
                   <c:v>13100</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="62">
                   <c:v>13600</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="63">
                   <c:v>14100</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="64">
                   <c:v>14600</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="65">
                   <c:v>15100</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="66">
                   <c:v>15600</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="67">
                   <c:v>16100</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="68">
                   <c:v>16600</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="69">
                   <c:v>17100</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="70">
                   <c:v>17600</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="71">
                   <c:v>18100</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="72">
                   <c:v>18600</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="73">
                   <c:v>19100</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="74">
                   <c:v>19600</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="75">
                   <c:v>20100</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="76">
                   <c:v>20600</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="77">
                   <c:v>21100</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="78">
                   <c:v>21600</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="79">
                   <c:v>21952</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="80">
                   <c:v>22100</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="81">
                   <c:v>24000</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="82">
                   <c:v>27100</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="83">
                   <c:v>32768</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="84">
                   <c:v>37100</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="85">
                   <c:v>42875</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="86">
                   <c:v>50653</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="87">
                   <c:v>64000</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="88">
                   <c:v>74088</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="89">
                   <c:v>85184</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="90">
                   <c:v>91125</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="91">
                   <c:v>103823</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="92">
                   <c:v>100489</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="93">
                   <c:v>205379</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="94">
                   <c:v>300763</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$3:$J$91</c:f>
+              <c:f>Sheet1!$J$3:$J$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.18842671740649186</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.22267564034583059</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.37003856681682823</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.29930481318341812</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.38613657534483004</c:v>
+                </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>0.5082739148996761</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.50095252500095289</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.65901600000000005</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.64137335836307663</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.87681527740716081</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.142216089194068</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0</c:v>
+                  <c:v>1.2287454240932043</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.2884979902903051</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.4253534713915326</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.5133950383885446</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.5381709953493281</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.5331952633226487</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.1273930000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3274,10 +3115,363 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="5"/>
+          <c:order val="4"/>
           <c:tx>
-            <c:v>imp2D</c:v>
+            <c:v>imp3D</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="95"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1331</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2197</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3375</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4600</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4624</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4761</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4913</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5041</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5184</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5832</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6859</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7100</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8100</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8600</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9261</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10100</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>10600</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>10648</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>11100</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>11600</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>12100</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>12600</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>13100</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>13600</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>14100</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>14600</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>15100</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>15600</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>16100</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>16600</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>17100</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>17600</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>18100</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>18600</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>19100</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>19600</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>20100</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>20600</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>21100</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>21600</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>21952</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>22100</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>27100</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>37100</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>42875</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>50653</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>74088</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>85184</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91125</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>103823</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>100489</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>205379</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>300763</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$L$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="95"/>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.72589199999999998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.499571</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>full</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -3304,10 +3498,11 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$3:$B$91</c:f>
-              <c:strCache>
-                <c:ptCount val="89"/>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -3399,536 +3594,217 @@
                   <c:v>3600</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>4100</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>4600</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
+                  <c:v>4624</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4761</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>4913</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="37">
+                  <c:v>5041</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>5100</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="39">
+                  <c:v>5184</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>5600</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="41">
                   <c:v>5832</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="42">
                   <c:v>6100</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="43">
                   <c:v>6600</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="44">
                   <c:v>6859</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="45">
                   <c:v>7100</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="46">
                   <c:v>7600</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="47">
                   <c:v>8000</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="48">
                   <c:v>8100</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="49">
                   <c:v>8600</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="50">
                   <c:v>9100</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="51">
                   <c:v>9261</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="52">
                   <c:v>9600</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="53">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="54">
                   <c:v>10100</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="55">
                   <c:v>10600</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="56">
                   <c:v>10648</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="57">
                   <c:v>11100</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="58">
                   <c:v>11600</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="59">
                   <c:v>12100</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="60">
                   <c:v>12600</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="61">
                   <c:v>13100</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="62">
                   <c:v>13600</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="63">
                   <c:v>14100</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="64">
                   <c:v>14600</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="65">
                   <c:v>15100</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="66">
                   <c:v>15600</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="67">
                   <c:v>16100</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="68">
                   <c:v>16600</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="69">
                   <c:v>17100</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="70">
                   <c:v>17600</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="71">
                   <c:v>18100</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="72">
                   <c:v>18600</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="73">
                   <c:v>19100</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="74">
                   <c:v>19600</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="75">
                   <c:v>20100</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="76">
                   <c:v>20600</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="77">
                   <c:v>21100</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="78">
                   <c:v>21600</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="79">
                   <c:v>21952</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="80">
                   <c:v>22100</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="81">
                   <c:v>24000</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="82">
                   <c:v>27100</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="83">
                   <c:v>32768</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="84">
                   <c:v>37100</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="85">
                   <c:v>42875</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="86">
                   <c:v>50653</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="87">
                   <c:v>64000</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="88">
                   <c:v>74088</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="89">
                   <c:v>85184</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="90">
                   <c:v>91125</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="91">
                   <c:v>103823</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="92">
                   <c:v>100489</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="93">
                   <c:v>205379</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="94">
                   <c:v>300763</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$3:$K$91</c:f>
+              <c:f>Sheet1!$M$3:$M$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="89"/>
-                <c:pt idx="1">
+                <c:ptCount val="95"/>
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>full</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$3:$B$91</c:f>
-              <c:strCache>
-                <c:ptCount val="89"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>850</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>900</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1331</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1350</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1850</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2100</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2197</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2600</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3100</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3375</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3600</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4100</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4600</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4913</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>5100</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>5600</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>5832</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>6100</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>6600</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>6859</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>7100</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>7600</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>8100</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>8600</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>9100</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>9261</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>9600</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>10100</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>10600</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>10648</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>11100</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>11600</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>12100</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>12600</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>13100</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>13600</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>14100</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>14600</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>15100</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>15600</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>16100</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>16600</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>17100</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>17600</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>18100</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>18600</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>19100</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>19600</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>20100</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>20600</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>21100</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>21600</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>21952</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>22100</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>24000</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>27100</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>32768</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>37100</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>42875</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>50653</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>64000</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>74088</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>85184</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>91125</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>103823</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>100489</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>205379</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>300763</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$3:$L$91</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="89"/>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0</c:v>
+                  <c:v>6.7312999999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3936,7 +3812,6 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -3946,11 +3821,764 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="506660224"/>
-        <c:axId val="506668456"/>
+        <c:axId val="353141960"/>
+        <c:axId val="353141176"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:v>2D</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$3:$B$97</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="95"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>125</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>350</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>400</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>600</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>800</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>850</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>900</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>1024</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>1100</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>1331</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>1350</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>1600</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>1850</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>2100</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>2197</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>2600</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>3100</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>3375</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>3600</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>4096</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>4100</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>4600</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>4624</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>4761</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>4900</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>4913</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>5041</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>5100</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>5184</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>5600</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>5832</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>6100</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>6600</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>6859</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>7100</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>7600</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>8000</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>8100</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>8600</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>9100</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>9261</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>9600</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>10100</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>10600</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>10648</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>11100</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>11600</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>12100</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>12600</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>13100</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>13600</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>14100</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>14600</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>15100</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>15600</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>16100</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>16600</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>17100</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>17600</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>18100</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>18600</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>19100</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>19600</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>20100</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>20600</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>21100</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>21600</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>21952</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>22100</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>24000</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>27100</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>32768</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>37100</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>42875</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>50653</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>64000</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>74088</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>85184</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>91125</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>103823</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>100489</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>205379</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>300763</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$I$3:$I$97</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="95"/>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0.22540543628727924</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>0.50935953913066245</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>0.55264753493016572</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>0.53924551590302372</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>0.31030641621975658</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>0.44091065559309861</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>0.42094211080718119</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>0.68652899999999994</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>1.7864169999999999</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:v>imp2D</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$3:$B$97</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="95"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>125</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>350</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>400</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>600</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>700</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>800</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>850</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>900</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>1024</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>1100</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>1331</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>1350</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>1600</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>1850</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>2100</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>2197</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>2600</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>3100</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>3375</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>3600</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>4096</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>4100</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>4600</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>4624</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>4761</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>4900</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>4913</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>5041</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>5100</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>5184</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>5600</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>5832</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>6100</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>6600</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>6859</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>7100</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>7600</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>8000</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>8100</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>8600</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>9100</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>9261</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>9600</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>10100</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>10600</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>10648</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>11100</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>11600</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>12100</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>12600</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>13100</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>13600</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>14100</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>14600</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>15100</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>15600</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>16100</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>16600</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>17100</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>17600</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>18100</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>18600</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>19100</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>19600</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>20100</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>20600</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>21100</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>21600</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>21952</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>22100</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>24000</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>27100</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>32768</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>37100</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>42875</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>50653</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>64000</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>74088</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>85184</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>91125</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>103823</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>100489</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>205379</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>300763</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$K$3:$K$97</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="95"/>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>0.73226599999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>1.875286</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="506660224"/>
+        <c:axId val="353141960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4049,7 +4677,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506668456"/>
+        <c:crossAx val="353141176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4057,7 +4685,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="506668456"/>
+        <c:axId val="353141176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4164,7 +4792,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506660224"/>
+        <c:crossAx val="353141960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5373,7 +6001,7 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5659,10 +6287,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M91"/>
+  <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X21" sqref="X21"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y23" sqref="Y23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5684,98 +6313,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="8" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:13" s="7" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="7" t="s">
+      <c r="K2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="B3" s="9">
+        <v>10</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="M3" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="9">
         <v>16</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" t="s">
-        <v>16</v>
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>10</v>
+      <c r="B5" s="9">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" t="s">
-        <v>16</v>
+      <c r="B6" s="9">
+        <v>27</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>11</v>
+      <c r="B7" s="9">
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>100</v>
       </c>
       <c r="C8">
@@ -5788,17 +6417,17 @@
         <v>0</v>
       </c>
       <c r="F8"/>
-      <c r="H8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>16</v>
+      <c r="H8" s="8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -5811,11 +6440,11 @@
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="J9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" t="s">
-        <v>16</v>
+      <c r="J9" s="8">
+        <v>0</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -5828,6 +6457,9 @@
       <c r="D10"/>
       <c r="E10"/>
       <c r="F10"/>
+      <c r="H10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11">
@@ -5839,6 +6471,10 @@
       <c r="D11"/>
       <c r="E11"/>
       <c r="F11"/>
+      <c r="H11">
+        <f>LOG10(1.27872)</f>
+        <v>0.1067754578738507</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12">
@@ -5861,6 +6497,10 @@
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13"/>
+      <c r="H13">
+        <f>LOG10(3.787487)</f>
+        <v>0.5783511508600766</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14">
@@ -5872,6 +6512,10 @@
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
+      <c r="H14">
+        <f>LOG10(2.525268)</f>
+        <v>0.40230747542291845</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15">
@@ -5887,6 +6531,13 @@
         <v>0</v>
       </c>
       <c r="F15"/>
+      <c r="H15">
+        <f>LOG10(2.983095)</f>
+        <v>0.4746670841762835</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16">
@@ -5898,6 +6549,10 @@
       <c r="D16"/>
       <c r="E16"/>
       <c r="F16"/>
+      <c r="H16">
+        <f>LOG10(5.022579)</f>
+        <v>0.70092677647936974</v>
+      </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17">
@@ -5909,6 +6564,10 @@
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17"/>
+      <c r="H17">
+        <f>LOG10(5.803445)</f>
+        <v>0.76368587293136914</v>
+      </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18">
@@ -5931,6 +6590,10 @@
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19"/>
+      <c r="H19">
+        <f>LOG10(14.44571)</f>
+        <v>1.1597388920787564</v>
+      </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20">
@@ -5942,17 +6605,17 @@
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20"/>
-      <c r="H20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" t="s">
-        <v>23</v>
-      </c>
-      <c r="L20" t="s">
-        <v>16</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>28</v>
+      <c r="H20" s="8">
+        <v>0.99419952099999997</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="L20" s="8">
+        <v>0</v>
+      </c>
+      <c r="M20" s="8">
+        <v>6.7312999999999998E-2</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
@@ -5963,11 +6626,11 @@
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21"/>
-      <c r="I21" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" t="s">
-        <v>16</v>
+      <c r="I21" s="8">
+        <v>0</v>
+      </c>
+      <c r="K21" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
@@ -5984,6 +6647,10 @@
         <v>0</v>
       </c>
       <c r="F22"/>
+      <c r="H22">
+        <f>LOG10(12.138203)</f>
+        <v>1.0841543963808951</v>
+      </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23">
@@ -6021,6 +6688,10 @@
         <v>0</v>
       </c>
       <c r="F25"/>
+      <c r="H25">
+        <f>LOG10(13.909605)</f>
+        <v>1.1433147972274107</v>
+      </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26">
@@ -6045,6 +6716,10 @@
       </c>
       <c r="E27"/>
       <c r="F27"/>
+      <c r="H27">
+        <f>LOG10(23.932529)</f>
+        <v>1.378988593837476</v>
+      </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28">
@@ -6056,6 +6731,9 @@
       <c r="F28">
         <v>0.75657200000000002</v>
       </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29">
@@ -6069,6 +6747,10 @@
       </c>
       <c r="E29"/>
       <c r="F29"/>
+      <c r="H29">
+        <f>LOG10(48.971803)</f>
+        <v>1.6899460937779933</v>
+      </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30">
@@ -6082,6 +6764,10 @@
       </c>
       <c r="E30"/>
       <c r="F30"/>
+      <c r="H30">
+        <f>LOG10(36.449378)</f>
+        <v>1.5616901215847865</v>
+      </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31">
@@ -6093,6 +6779,10 @@
       <c r="F31">
         <v>1.00997</v>
       </c>
+      <c r="J31">
+        <f>LOG10(1.543216)</f>
+        <v>0.18842671740649186</v>
+      </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32">
@@ -6106,708 +6796,877 @@
       </c>
       <c r="E32"/>
       <c r="F32"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <f>LOG10(66.509221)</f>
+        <v>1.8228818611196314</v>
+      </c>
+      <c r="I32">
+        <f>LOG10(1.680372)</f>
+        <v>0.22540543628727924</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33">
-        <v>4100</v>
-      </c>
-      <c r="C33">
-        <v>6.4115399999999996</v>
-      </c>
-      <c r="D33">
-        <v>3.8152300000000001</v>
-      </c>
+        <v>4096</v>
+      </c>
+      <c r="C33"/>
+      <c r="D33"/>
       <c r="E33"/>
       <c r="F33"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <f>LOG10(3.231168)</f>
+        <v>0.50935953913066245</v>
+      </c>
+      <c r="J33">
+        <f>LOG10(1.669843)</f>
+        <v>0.22267564034583059</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34">
-        <v>4600</v>
+        <v>4100</v>
       </c>
       <c r="C34">
-        <v>6.86388</v>
+        <v>6.4115399999999996</v>
       </c>
       <c r="D34">
-        <v>3.8140700000000001</v>
+        <v>3.8152300000000001</v>
       </c>
       <c r="E34"/>
       <c r="F34"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <f>LOG10(129.76023)</f>
+        <v>2.1131416066547066</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35">
-        <v>4913</v>
-      </c>
-      <c r="C35"/>
-      <c r="D35"/>
+        <v>4600</v>
+      </c>
+      <c r="C35">
+        <v>6.86388</v>
+      </c>
+      <c r="D35">
+        <v>3.8140700000000001</v>
+      </c>
       <c r="E35"/>
-      <c r="F35">
-        <v>1.5160800000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F35"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36">
-        <v>5100</v>
-      </c>
-      <c r="C36">
-        <v>6.1477000000000004</v>
-      </c>
-      <c r="D36">
-        <v>4.0877100000000004</v>
-      </c>
+        <v>4624</v>
+      </c>
+      <c r="C36"/>
+      <c r="D36"/>
       <c r="E36"/>
       <c r="F36"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <f>LOG10(3.56983)</f>
+        <v>0.55264753493016572</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37">
-        <v>5600</v>
-      </c>
-      <c r="C37">
-        <v>7.1146700000000003</v>
-      </c>
-      <c r="D37">
-        <v>4.1109799999999996</v>
-      </c>
+        <v>4761</v>
+      </c>
+      <c r="C37"/>
+      <c r="D37"/>
       <c r="E37"/>
       <c r="F37"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <f>LOG10(3.46135)</f>
+        <v>0.53924551590302372</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38">
-        <v>5832</v>
+        <v>4900</v>
       </c>
       <c r="C38"/>
       <c r="D38"/>
       <c r="E38"/>
-      <c r="F38">
-        <v>1.7073100000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F38"/>
+      <c r="I38">
+        <f>LOG10(2.043179)</f>
+        <v>0.31030641621975658</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39">
-        <v>6100</v>
-      </c>
-      <c r="C39">
-        <v>6.5541299999999998</v>
-      </c>
-      <c r="D39">
-        <v>4.3894299999999999</v>
-      </c>
+        <v>4913</v>
+      </c>
+      <c r="C39"/>
+      <c r="D39"/>
       <c r="E39"/>
-      <c r="F39"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>1.5160800000000001</v>
+      </c>
+      <c r="J39">
+        <f>LOG10(2.344437)</f>
+        <v>0.37003856681682823</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40">
-        <v>6600</v>
-      </c>
-      <c r="C40">
-        <v>6.68879</v>
-      </c>
-      <c r="D40">
-        <v>4.4127599999999996</v>
-      </c>
+        <v>5041</v>
+      </c>
+      <c r="C40"/>
+      <c r="D40"/>
       <c r="E40"/>
       <c r="F40"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <f>LOG10(2.76001)</f>
+        <v>0.44091065559309861</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41">
-        <v>6859</v>
-      </c>
-      <c r="C41"/>
-      <c r="D41"/>
+        <v>5100</v>
+      </c>
+      <c r="C41">
+        <v>6.1477000000000004</v>
+      </c>
+      <c r="D41">
+        <v>4.0877100000000004</v>
+      </c>
       <c r="E41"/>
-      <c r="F41">
-        <v>1.7757499999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F41"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42">
-        <v>7100</v>
-      </c>
-      <c r="C42">
-        <v>7.0179999999999998</v>
-      </c>
-      <c r="D42">
-        <v>4.6531500000000001</v>
-      </c>
+        <v>5184</v>
+      </c>
+      <c r="C42"/>
+      <c r="D42"/>
       <c r="E42"/>
       <c r="F42"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <f>LOG10(2.63598)</f>
+        <v>0.42094211080718119</v>
+      </c>
+      <c r="L42">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43">
-        <v>7600</v>
+        <v>5600</v>
       </c>
       <c r="C43">
-        <v>7.0697099999999997</v>
+        <v>7.1146700000000003</v>
       </c>
       <c r="D43">
-        <v>4.6643699999999999</v>
+        <v>4.1109799999999996</v>
       </c>
       <c r="E43"/>
       <c r="F43"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44">
-        <v>8000</v>
+        <v>5832</v>
       </c>
       <c r="C44"/>
       <c r="D44"/>
       <c r="E44"/>
       <c r="F44">
-        <v>2.0869</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+        <v>1.7073100000000001</v>
+      </c>
+      <c r="J44">
+        <f>LOG10(1.992071)</f>
+        <v>0.29930481318341812</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45">
-        <v>8100</v>
+        <v>6100</v>
       </c>
       <c r="C45">
-        <v>7.3265599999999997</v>
+        <v>6.5541299999999998</v>
       </c>
       <c r="D45">
-        <v>4.9554400000000003</v>
+        <v>4.3894299999999999</v>
       </c>
       <c r="E45"/>
       <c r="F45"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46">
-        <v>8600</v>
-      </c>
-      <c r="C46"/>
+        <v>6600</v>
+      </c>
+      <c r="C46">
+        <v>6.68879</v>
+      </c>
       <c r="D46">
-        <v>4.9455200000000001</v>
+        <v>4.4127599999999996</v>
       </c>
       <c r="E46"/>
       <c r="F46"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47">
-        <v>9100</v>
-      </c>
-      <c r="C47">
-        <v>7.3402599999999998</v>
-      </c>
-      <c r="D47">
-        <v>4.9771200000000002</v>
-      </c>
+        <v>6859</v>
+      </c>
+      <c r="C47"/>
+      <c r="D47"/>
       <c r="E47"/>
-      <c r="F47"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>1.7757499999999999</v>
+      </c>
+      <c r="J47">
+        <f>LOG10(2.432969)</f>
+        <v>0.38613657534483004</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48">
-        <v>9261</v>
-      </c>
-      <c r="C48"/>
-      <c r="D48"/>
+        <v>7100</v>
+      </c>
+      <c r="C48">
+        <v>7.0179999999999998</v>
+      </c>
+      <c r="D48">
+        <v>4.6531500000000001</v>
+      </c>
       <c r="E48"/>
-      <c r="F48">
-        <v>2.0419900000000002</v>
+      <c r="F48"/>
+      <c r="H48">
+        <f>LOG10(384.947423)</f>
+        <v>2.5854014166247157</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49">
-        <v>9600</v>
-      </c>
-      <c r="C49"/>
+        <v>7600</v>
+      </c>
+      <c r="C49">
+        <v>7.0697099999999997</v>
+      </c>
       <c r="D49">
-        <v>5.2140300000000002</v>
+        <v>4.6643699999999999</v>
       </c>
       <c r="E49"/>
       <c r="F49"/>
+      <c r="H49">
+        <f>LOG10(398.964183)</f>
+        <v>2.6009339086600116</v>
+      </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="C50"/>
       <c r="D50"/>
       <c r="E50"/>
-      <c r="F50"/>
-      <c r="H50" t="s">
-        <v>18</v>
-      </c>
-      <c r="I50" t="s">
-        <v>19</v>
-      </c>
-      <c r="J50" t="s">
-        <v>22</v>
-      </c>
-      <c r="K50" t="s">
-        <v>24</v>
-      </c>
-      <c r="L50" t="s">
-        <v>26</v>
+      <c r="F50">
+        <v>2.0869</v>
+      </c>
+      <c r="J50">
+        <f>LOG10(3.223101)</f>
+        <v>0.5082739148996761</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51">
-        <v>10100</v>
+        <v>8100</v>
       </c>
       <c r="C51">
-        <v>7.6825700000000001</v>
+        <v>7.3265599999999997</v>
       </c>
       <c r="D51">
-        <v>5.1852200000000002</v>
+        <v>4.9554400000000003</v>
       </c>
       <c r="E51"/>
       <c r="F51"/>
+      <c r="H51">
+        <f>LOG10(232.642858)</f>
+        <v>2.3666897244867378</v>
+      </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52">
-        <v>10600</v>
+        <v>8600</v>
       </c>
       <c r="C52"/>
       <c r="D52">
-        <v>5.1173099999999998</v>
+        <v>4.9455200000000001</v>
       </c>
       <c r="E52"/>
       <c r="F52"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B53">
-        <v>10648</v>
-      </c>
-      <c r="C53"/>
-      <c r="D53"/>
+        <v>9100</v>
+      </c>
+      <c r="C53">
+        <v>7.3402599999999998</v>
+      </c>
+      <c r="D53">
+        <v>4.9771200000000002</v>
+      </c>
       <c r="E53"/>
-      <c r="F53">
-        <v>2.3207399999999998</v>
+      <c r="F53"/>
+      <c r="H53">
+        <f>LOG10(279.186032)</f>
+        <v>2.4458936862395517</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54">
-        <v>11100</v>
-      </c>
-      <c r="C54">
-        <v>8.0677099999999999</v>
-      </c>
-      <c r="D54">
-        <v>5.4143999999999997</v>
-      </c>
+        <v>9261</v>
+      </c>
+      <c r="C54"/>
+      <c r="D54"/>
       <c r="E54"/>
-      <c r="F54"/>
+      <c r="F54">
+        <v>2.0419900000000002</v>
+      </c>
+      <c r="J54">
+        <f>LOG10(3.169221)</f>
+        <v>0.50095252500095289</v>
+      </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55">
-        <v>11600</v>
+        <v>9600</v>
       </c>
       <c r="C55"/>
       <c r="D55">
-        <v>5.4277300000000004</v>
+        <v>5.2140300000000002</v>
       </c>
       <c r="E55"/>
       <c r="F55"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B56">
-        <v>12100</v>
-      </c>
-      <c r="C56">
-        <v>7.6545699999999997</v>
-      </c>
-      <c r="D56">
-        <v>5.3865999999999996</v>
-      </c>
+        <v>10000</v>
+      </c>
+      <c r="C56"/>
+      <c r="D56"/>
       <c r="E56"/>
       <c r="F56"/>
+      <c r="H56" s="8">
+        <v>2.8518540790000002</v>
+      </c>
+      <c r="I56" s="8">
+        <v>0.68652899999999994</v>
+      </c>
+      <c r="J56" s="8">
+        <v>0.65901600000000005</v>
+      </c>
+      <c r="K56" s="8">
+        <v>0.73226599999999997</v>
+      </c>
+      <c r="L56" s="8">
+        <v>0.72589199999999998</v>
+      </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57">
-        <v>12600</v>
-      </c>
-      <c r="C57"/>
+        <v>10100</v>
+      </c>
+      <c r="C57">
+        <v>7.6825700000000001</v>
+      </c>
       <c r="D57">
-        <v>5.6473199999999997</v>
+        <v>5.1852200000000002</v>
       </c>
       <c r="E57"/>
       <c r="F57"/>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B58">
-        <v>13100</v>
-      </c>
-      <c r="C58">
-        <v>8.1456800000000005</v>
-      </c>
+        <v>10600</v>
+      </c>
+      <c r="C58"/>
       <c r="D58">
-        <v>5.6406400000000003</v>
+        <v>5.1173099999999998</v>
       </c>
       <c r="E58"/>
       <c r="F58"/>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59">
-        <v>13600</v>
+        <v>10648</v>
       </c>
       <c r="C59"/>
-      <c r="D59">
-        <v>5.6085000000000003</v>
-      </c>
+      <c r="D59"/>
       <c r="E59"/>
-      <c r="F59"/>
+      <c r="F59">
+        <v>2.3207399999999998</v>
+      </c>
+      <c r="J59">
+        <f>LOG10(4.378984)</f>
+        <v>0.64137335836307663</v>
+      </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B60">
-        <v>14100</v>
+        <v>11100</v>
       </c>
       <c r="C60">
-        <v>8.6444899999999993</v>
+        <v>8.0677099999999999</v>
       </c>
       <c r="D60">
-        <v>5.8101200000000004</v>
+        <v>5.4143999999999997</v>
       </c>
       <c r="E60"/>
       <c r="F60"/>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B61">
-        <v>14600</v>
+        <v>11600</v>
       </c>
       <c r="C61"/>
       <c r="D61">
-        <v>5.8166399999999996</v>
+        <v>5.4277300000000004</v>
       </c>
       <c r="E61"/>
       <c r="F61"/>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B62">
-        <v>15100</v>
+        <v>12100</v>
       </c>
       <c r="C62">
-        <v>8.5376600000000007</v>
+        <v>7.6545699999999997</v>
       </c>
       <c r="D62">
-        <v>5.8336100000000002</v>
+        <v>5.3865999999999996</v>
       </c>
       <c r="E62"/>
       <c r="F62"/>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B63">
-        <v>15600</v>
+        <v>12600</v>
       </c>
       <c r="C63"/>
       <c r="D63">
-        <v>5.8480100000000004</v>
+        <v>5.6473199999999997</v>
       </c>
       <c r="E63"/>
       <c r="F63"/>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B64">
-        <v>16100</v>
-      </c>
-      <c r="C64"/>
+        <v>13100</v>
+      </c>
+      <c r="C64">
+        <v>8.1456800000000005</v>
+      </c>
       <c r="D64">
-        <v>6.0638100000000001</v>
+        <v>5.6406400000000003</v>
       </c>
       <c r="E64"/>
       <c r="F64"/>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65">
-        <v>16600</v>
+        <v>13600</v>
       </c>
       <c r="C65"/>
       <c r="D65">
-        <v>6.0171099999999997</v>
+        <v>5.6085000000000003</v>
       </c>
       <c r="E65"/>
       <c r="F65"/>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66">
-        <v>17100</v>
-      </c>
-      <c r="C66"/>
+        <v>14100</v>
+      </c>
+      <c r="C66">
+        <v>8.6444899999999993</v>
+      </c>
       <c r="D66">
-        <v>6.0787599999999999</v>
+        <v>5.8101200000000004</v>
       </c>
       <c r="E66"/>
       <c r="F66"/>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67">
-        <v>17600</v>
+        <v>14600</v>
       </c>
       <c r="C67"/>
       <c r="D67">
-        <v>6.2547199999999998</v>
+        <v>5.8166399999999996</v>
       </c>
       <c r="E67"/>
       <c r="F67"/>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68">
-        <v>18100</v>
-      </c>
-      <c r="C68"/>
+        <v>15100</v>
+      </c>
+      <c r="C68">
+        <v>8.5376600000000007</v>
+      </c>
       <c r="D68">
-        <v>6.2610799999999998</v>
+        <v>5.8336100000000002</v>
       </c>
       <c r="E68"/>
       <c r="F68"/>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69">
-        <v>18600</v>
+        <v>15600</v>
       </c>
       <c r="C69"/>
       <c r="D69">
-        <v>6.2632700000000003</v>
+        <v>5.8480100000000004</v>
       </c>
       <c r="E69"/>
       <c r="F69"/>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70">
-        <v>19100</v>
+        <v>16100</v>
       </c>
       <c r="C70"/>
       <c r="D70">
-        <v>6.5851100000000002</v>
+        <v>6.0638100000000001</v>
       </c>
       <c r="E70"/>
       <c r="F70"/>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71">
-        <v>19600</v>
+        <v>16600</v>
       </c>
       <c r="C71"/>
       <c r="D71">
-        <v>6.2844100000000003</v>
+        <v>6.0171099999999997</v>
       </c>
       <c r="E71"/>
       <c r="F71"/>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72">
-        <v>20100</v>
+        <v>17100</v>
       </c>
       <c r="C72"/>
       <c r="D72">
-        <v>6.4528800000000004</v>
+        <v>6.0787599999999999</v>
       </c>
       <c r="E72"/>
       <c r="F72"/>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73">
-        <v>20600</v>
+        <v>17600</v>
       </c>
       <c r="C73"/>
       <c r="D73">
-        <v>6.4396199999999997</v>
+        <v>6.2547199999999998</v>
       </c>
       <c r="E73"/>
       <c r="F73"/>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74">
-        <v>21100</v>
+        <v>18100</v>
       </c>
       <c r="C74"/>
       <c r="D74">
-        <v>6.4618900000000004</v>
+        <v>6.2610799999999998</v>
       </c>
       <c r="E74"/>
       <c r="F74"/>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75">
-        <v>21600</v>
+        <v>18600</v>
       </c>
       <c r="C75"/>
       <c r="D75">
-        <v>6.5065400000000002</v>
+        <v>6.2632700000000003</v>
       </c>
       <c r="E75"/>
       <c r="F75"/>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76">
-        <v>21952</v>
+        <v>19100</v>
       </c>
       <c r="C76"/>
-      <c r="D76"/>
+      <c r="D76">
+        <v>6.5851100000000002</v>
+      </c>
       <c r="E76"/>
-      <c r="F76">
-        <v>3.03931</v>
-      </c>
+      <c r="F76"/>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77">
-        <v>22100</v>
+        <v>19600</v>
       </c>
       <c r="C77"/>
       <c r="D77">
-        <v>6.6528</v>
+        <v>6.2844100000000003</v>
       </c>
       <c r="E77"/>
       <c r="F77"/>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78">
-        <v>24000</v>
+        <v>20100</v>
       </c>
       <c r="C78"/>
       <c r="D78">
-        <v>6.6222700000000003</v>
+        <v>6.4528800000000004</v>
       </c>
       <c r="E78"/>
       <c r="F78"/>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79">
-        <v>27100</v>
-      </c>
-      <c r="C79">
-        <v>9.1123799999999999</v>
-      </c>
-      <c r="D79"/>
+        <v>20600</v>
+      </c>
+      <c r="C79"/>
+      <c r="D79">
+        <v>6.4396199999999997</v>
+      </c>
       <c r="E79"/>
       <c r="F79"/>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80">
-        <v>32768</v>
+        <v>21100</v>
       </c>
       <c r="C80"/>
-      <c r="D80"/>
+      <c r="D80">
+        <v>6.4618900000000004</v>
+      </c>
       <c r="E80"/>
-      <c r="F80">
-        <v>3.5956800000000002</v>
-      </c>
+      <c r="F80"/>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B81">
-        <v>37100</v>
-      </c>
-      <c r="C81">
-        <v>9.9929900000000007</v>
-      </c>
-      <c r="D81"/>
+        <v>21600</v>
+      </c>
+      <c r="C81"/>
+      <c r="D81">
+        <v>6.5065400000000002</v>
+      </c>
       <c r="E81"/>
       <c r="F81"/>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B82">
-        <v>42875</v>
+        <v>21952</v>
       </c>
       <c r="C82"/>
       <c r="D82"/>
       <c r="E82"/>
       <c r="F82">
-        <v>3.8520599999999998</v>
+        <v>3.03931</v>
+      </c>
+      <c r="J82">
+        <f>LOG10(7.530352)</f>
+        <v>0.87681527740716081</v>
       </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B83">
-        <v>50653</v>
+        <v>22100</v>
       </c>
       <c r="C83"/>
-      <c r="D83"/>
+      <c r="D83">
+        <v>6.6528</v>
+      </c>
       <c r="E83"/>
-      <c r="F83">
-        <v>3.97126</v>
-      </c>
+      <c r="F83"/>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B84">
-        <v>64000</v>
+        <v>24000</v>
       </c>
       <c r="C84"/>
-      <c r="D84"/>
+      <c r="D84">
+        <v>6.6222700000000003</v>
+      </c>
       <c r="E84"/>
-      <c r="F84">
-        <v>4.2911099999999998</v>
-      </c>
+      <c r="F84"/>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B85">
-        <v>74088</v>
-      </c>
-      <c r="C85"/>
+        <v>27100</v>
+      </c>
+      <c r="C85">
+        <v>9.1123799999999999</v>
+      </c>
       <c r="D85"/>
       <c r="E85"/>
-      <c r="F85">
-        <v>4.4571699999999996</v>
-      </c>
+      <c r="F85"/>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B86">
-        <v>85184</v>
+        <v>32768</v>
       </c>
       <c r="C86"/>
       <c r="D86"/>
       <c r="E86"/>
       <c r="F86">
-        <v>4.5895700000000001</v>
+        <v>3.5956800000000002</v>
+      </c>
+      <c r="J86">
+        <f>LOG10(13.87446)</f>
+        <v>1.142216089194068</v>
       </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B87">
-        <v>91125</v>
-      </c>
-      <c r="C87"/>
+        <v>37100</v>
+      </c>
+      <c r="C87">
+        <v>9.9929900000000007</v>
+      </c>
       <c r="D87"/>
       <c r="E87"/>
-      <c r="F87">
-        <v>4.6817700000000002</v>
-      </c>
+      <c r="F87"/>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B88">
-        <v>103823</v>
+        <v>42875</v>
       </c>
       <c r="C88"/>
       <c r="D88"/>
       <c r="E88"/>
       <c r="F88">
-        <v>4.7963300000000002</v>
-      </c>
-      <c r="J88" t="s">
-        <v>21</v>
-      </c>
-      <c r="L88" t="s">
-        <v>27</v>
+        <v>3.8520599999999998</v>
+      </c>
+      <c r="J88">
+        <f>LOG10(16.933449)</f>
+        <v>1.2287454240932043</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B89">
-        <v>100489</v>
+        <v>50653</v>
       </c>
       <c r="C89"/>
       <c r="D89"/>
       <c r="E89"/>
-      <c r="F89"/>
-      <c r="I89" t="s">
-        <v>20</v>
-      </c>
-      <c r="K89" t="s">
-        <v>25</v>
+      <c r="F89">
+        <v>3.97126</v>
+      </c>
+      <c r="J89">
+        <f>LOG10(19.431127)</f>
+        <v>1.2884979902903051</v>
       </c>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B90">
-        <v>205379</v>
+        <v>64000</v>
       </c>
       <c r="C90"/>
       <c r="D90"/>
       <c r="E90"/>
       <c r="F90">
-        <v>5.67401</v>
+        <v>4.2911099999999998</v>
+      </c>
+      <c r="J90">
+        <f>LOG10(26.628915)</f>
+        <v>1.4253534713915326</v>
       </c>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B91">
-        <v>300763</v>
+        <v>74088</v>
       </c>
       <c r="C91"/>
       <c r="D91"/>
       <c r="E91"/>
       <c r="F91">
+        <v>4.4571699999999996</v>
+      </c>
+      <c r="J91">
+        <f>LOG10(32.613322)</f>
+        <v>1.5133950383885446</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>85184</v>
+      </c>
+      <c r="C92"/>
+      <c r="D92"/>
+      <c r="E92"/>
+      <c r="F92">
+        <v>4.5895700000000001</v>
+      </c>
+      <c r="J92">
+        <f>LOG10(34.527966)</f>
+        <v>1.5381709953493281</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>91125</v>
+      </c>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93">
+        <v>4.6817700000000002</v>
+      </c>
+      <c r="J93">
+        <f>LOG10(34.134635)</f>
+        <v>1.5331952633226487</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>103823</v>
+      </c>
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94"/>
+      <c r="F94">
+        <v>4.7963300000000002</v>
+      </c>
+      <c r="J94" s="8">
+        <v>2.1273930000000001</v>
+      </c>
+      <c r="L94" s="8">
+        <v>2.499571</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>100489</v>
+      </c>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="I95" s="8">
+        <v>1.7864169999999999</v>
+      </c>
+      <c r="K95" s="8">
+        <v>1.875286</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>205379</v>
+      </c>
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96">
+        <v>5.67401</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>300763</v>
+      </c>
+      <c r="C97"/>
+      <c r="D97"/>
+      <c r="E97"/>
+      <c r="F97">
         <v>6.59</v>
       </c>
     </row>

--- a/Project2/report.xlsx
+++ b/Project2/report.xlsx
@@ -286,10 +286,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$97</c:f>
+              <c:f>Sheet1!$B$3:$B$107</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -411,168 +411,198 @@
                   <c:v>5184</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>5329</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5476</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>5600</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="43">
+                  <c:v>5625</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5776</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>5832</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="46">
+                  <c:v>5929</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6084</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>6100</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="49">
+                  <c:v>6241</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6561</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>6600</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="53">
+                  <c:v>6724</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>6859</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="55">
                   <c:v>7100</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="56">
                   <c:v>7600</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="57">
                   <c:v>8000</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="58">
                   <c:v>8100</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="59">
                   <c:v>8600</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="60">
                   <c:v>9100</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="61">
                   <c:v>9261</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="62">
                   <c:v>9600</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="63">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="64">
                   <c:v>10100</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="65">
                   <c:v>10600</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="66">
                   <c:v>10648</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="67">
                   <c:v>11100</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="68">
                   <c:v>11600</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="69">
                   <c:v>12100</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="70">
                   <c:v>12600</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="71">
                   <c:v>13100</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="72">
                   <c:v>13600</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="73">
                   <c:v>14100</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="74">
                   <c:v>14600</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="75">
                   <c:v>15100</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="76">
                   <c:v>15600</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="77">
                   <c:v>16100</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="78">
                   <c:v>16600</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="79">
                   <c:v>17100</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="80">
                   <c:v>17600</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="81">
                   <c:v>18100</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="82">
                   <c:v>18600</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="83">
                   <c:v>19100</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="84">
                   <c:v>19600</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="85">
                   <c:v>20100</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="86">
                   <c:v>20600</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="87">
                   <c:v>21100</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="88">
                   <c:v>21600</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="89">
                   <c:v>21952</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="90">
                   <c:v>22100</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="91">
                   <c:v>24000</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="92">
                   <c:v>27100</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="93">
                   <c:v>32768</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="94">
                   <c:v>37100</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="95">
                   <c:v>42875</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="96">
                   <c:v>50653</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="97">
                   <c:v>64000</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="98">
                   <c:v>74088</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="99">
                   <c:v>85184</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="100">
                   <c:v>91125</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="101">
                   <c:v>103823</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="102">
                   <c:v>100489</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="103">
                   <c:v>205379</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="104">
                   <c:v>300763</c:v>
                 </c:pt>
               </c:numCache>
@@ -580,10 +610,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$97</c:f>
+              <c:f>Sheet1!$C$3:$C$107</c:f>
               <c:numCache>
                 <c:formatCode>@</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="5" formatCode="General">
                   <c:v>0.52922599999999997</c:v>
                 </c:pt>
@@ -641,49 +671,49 @@
                 <c:pt idx="38" formatCode="General">
                   <c:v>6.1477000000000004</c:v>
                 </c:pt>
-                <c:pt idx="40" formatCode="General">
+                <c:pt idx="42" formatCode="General">
                   <c:v>7.1146700000000003</c:v>
                 </c:pt>
-                <c:pt idx="42" formatCode="General">
+                <c:pt idx="48" formatCode="General">
                   <c:v>6.5541299999999998</c:v>
                 </c:pt>
-                <c:pt idx="43" formatCode="General">
+                <c:pt idx="52" formatCode="General">
                   <c:v>6.68879</c:v>
                 </c:pt>
-                <c:pt idx="45" formatCode="General">
+                <c:pt idx="55" formatCode="General">
                   <c:v>7.0179999999999998</c:v>
                 </c:pt>
-                <c:pt idx="46" formatCode="General">
+                <c:pt idx="56" formatCode="General">
                   <c:v>7.0697099999999997</c:v>
                 </c:pt>
-                <c:pt idx="48" formatCode="General">
+                <c:pt idx="58" formatCode="General">
                   <c:v>7.3265599999999997</c:v>
                 </c:pt>
-                <c:pt idx="50" formatCode="General">
+                <c:pt idx="60" formatCode="General">
                   <c:v>7.3402599999999998</c:v>
                 </c:pt>
-                <c:pt idx="54" formatCode="General">
+                <c:pt idx="64" formatCode="General">
                   <c:v>7.6825700000000001</c:v>
                 </c:pt>
-                <c:pt idx="57" formatCode="General">
+                <c:pt idx="67" formatCode="General">
                   <c:v>8.0677099999999999</c:v>
                 </c:pt>
-                <c:pt idx="59" formatCode="General">
+                <c:pt idx="69" formatCode="General">
                   <c:v>7.6545699999999997</c:v>
                 </c:pt>
-                <c:pt idx="61" formatCode="General">
+                <c:pt idx="71" formatCode="General">
                   <c:v>8.1456800000000005</c:v>
                 </c:pt>
-                <c:pt idx="63" formatCode="General">
+                <c:pt idx="73" formatCode="General">
                   <c:v>8.6444899999999993</c:v>
                 </c:pt>
-                <c:pt idx="65" formatCode="General">
+                <c:pt idx="75" formatCode="General">
                   <c:v>8.5376600000000007</c:v>
                 </c:pt>
-                <c:pt idx="82" formatCode="General">
+                <c:pt idx="92" formatCode="General">
                   <c:v>9.1123799999999999</c:v>
                 </c:pt>
-                <c:pt idx="84" formatCode="General">
+                <c:pt idx="94" formatCode="General">
                   <c:v>9.9929900000000007</c:v>
                 </c:pt>
               </c:numCache>
@@ -723,10 +753,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$97</c:f>
+              <c:f>Sheet1!$B$3:$B$107</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -848,168 +878,198 @@
                   <c:v>5184</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>5329</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5476</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>5600</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="43">
+                  <c:v>5625</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5776</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>5832</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="46">
+                  <c:v>5929</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6084</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>6100</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="49">
+                  <c:v>6241</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6561</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>6600</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="53">
+                  <c:v>6724</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>6859</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="55">
                   <c:v>7100</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="56">
                   <c:v>7600</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="57">
                   <c:v>8000</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="58">
                   <c:v>8100</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="59">
                   <c:v>8600</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="60">
                   <c:v>9100</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="61">
                   <c:v>9261</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="62">
                   <c:v>9600</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="63">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="64">
                   <c:v>10100</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="65">
                   <c:v>10600</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="66">
                   <c:v>10648</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="67">
                   <c:v>11100</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="68">
                   <c:v>11600</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="69">
                   <c:v>12100</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="70">
                   <c:v>12600</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="71">
                   <c:v>13100</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="72">
                   <c:v>13600</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="73">
                   <c:v>14100</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="74">
                   <c:v>14600</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="75">
                   <c:v>15100</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="76">
                   <c:v>15600</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="77">
                   <c:v>16100</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="78">
                   <c:v>16600</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="79">
                   <c:v>17100</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="80">
                   <c:v>17600</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="81">
                   <c:v>18100</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="82">
                   <c:v>18600</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="83">
                   <c:v>19100</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="84">
                   <c:v>19600</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="85">
                   <c:v>20100</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="86">
                   <c:v>20600</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="87">
                   <c:v>21100</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="88">
                   <c:v>21600</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="89">
                   <c:v>21952</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="90">
                   <c:v>22100</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="91">
                   <c:v>24000</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="92">
                   <c:v>27100</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="93">
                   <c:v>32768</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="94">
                   <c:v>37100</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="95">
                   <c:v>42875</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="96">
                   <c:v>50653</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="97">
                   <c:v>64000</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="98">
                   <c:v>74088</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="99">
                   <c:v>85184</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="100">
                   <c:v>91125</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="101">
                   <c:v>103823</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="102">
                   <c:v>100489</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="103">
                   <c:v>205379</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="104">
                   <c:v>300763</c:v>
                 </c:pt>
               </c:numCache>
@@ -1017,10 +1077,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$97</c:f>
+              <c:f>Sheet1!$D$3:$D$107</c:f>
               <c:numCache>
                 <c:formatCode>@</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="5" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1054,109 +1114,109 @@
                 <c:pt idx="38" formatCode="General">
                   <c:v>4.0877100000000004</c:v>
                 </c:pt>
-                <c:pt idx="40" formatCode="General">
+                <c:pt idx="42" formatCode="General">
                   <c:v>4.1109799999999996</c:v>
                 </c:pt>
-                <c:pt idx="42" formatCode="General">
+                <c:pt idx="48" formatCode="General">
                   <c:v>4.3894299999999999</c:v>
                 </c:pt>
-                <c:pt idx="43" formatCode="General">
+                <c:pt idx="52" formatCode="General">
                   <c:v>4.4127599999999996</c:v>
                 </c:pt>
-                <c:pt idx="45" formatCode="General">
+                <c:pt idx="55" formatCode="General">
                   <c:v>4.6531500000000001</c:v>
                 </c:pt>
-                <c:pt idx="46" formatCode="General">
+                <c:pt idx="56" formatCode="General">
                   <c:v>4.6643699999999999</c:v>
                 </c:pt>
-                <c:pt idx="48" formatCode="General">
+                <c:pt idx="58" formatCode="General">
                   <c:v>4.9554400000000003</c:v>
                 </c:pt>
-                <c:pt idx="49" formatCode="General">
+                <c:pt idx="59" formatCode="General">
                   <c:v>4.9455200000000001</c:v>
                 </c:pt>
-                <c:pt idx="50" formatCode="General">
+                <c:pt idx="60" formatCode="General">
                   <c:v>4.9771200000000002</c:v>
                 </c:pt>
-                <c:pt idx="52" formatCode="General">
+                <c:pt idx="62" formatCode="General">
                   <c:v>5.2140300000000002</c:v>
                 </c:pt>
-                <c:pt idx="54" formatCode="General">
+                <c:pt idx="64" formatCode="General">
                   <c:v>5.1852200000000002</c:v>
                 </c:pt>
-                <c:pt idx="55" formatCode="General">
+                <c:pt idx="65" formatCode="General">
                   <c:v>5.1173099999999998</c:v>
                 </c:pt>
-                <c:pt idx="57" formatCode="General">
+                <c:pt idx="67" formatCode="General">
                   <c:v>5.4143999999999997</c:v>
                 </c:pt>
-                <c:pt idx="58" formatCode="General">
+                <c:pt idx="68" formatCode="General">
                   <c:v>5.4277300000000004</c:v>
                 </c:pt>
-                <c:pt idx="59" formatCode="General">
+                <c:pt idx="69" formatCode="General">
                   <c:v>5.3865999999999996</c:v>
                 </c:pt>
-                <c:pt idx="60" formatCode="General">
+                <c:pt idx="70" formatCode="General">
                   <c:v>5.6473199999999997</c:v>
                 </c:pt>
-                <c:pt idx="61" formatCode="General">
+                <c:pt idx="71" formatCode="General">
                   <c:v>5.6406400000000003</c:v>
                 </c:pt>
-                <c:pt idx="62" formatCode="General">
+                <c:pt idx="72" formatCode="General">
                   <c:v>5.6085000000000003</c:v>
                 </c:pt>
-                <c:pt idx="63" formatCode="General">
+                <c:pt idx="73" formatCode="General">
                   <c:v>5.8101200000000004</c:v>
                 </c:pt>
-                <c:pt idx="64" formatCode="General">
+                <c:pt idx="74" formatCode="General">
                   <c:v>5.8166399999999996</c:v>
                 </c:pt>
-                <c:pt idx="65" formatCode="General">
+                <c:pt idx="75" formatCode="General">
                   <c:v>5.8336100000000002</c:v>
                 </c:pt>
-                <c:pt idx="66" formatCode="General">
+                <c:pt idx="76" formatCode="General">
                   <c:v>5.8480100000000004</c:v>
                 </c:pt>
-                <c:pt idx="67" formatCode="General">
+                <c:pt idx="77" formatCode="General">
                   <c:v>6.0638100000000001</c:v>
                 </c:pt>
-                <c:pt idx="68" formatCode="General">
+                <c:pt idx="78" formatCode="General">
                   <c:v>6.0171099999999997</c:v>
                 </c:pt>
-                <c:pt idx="69" formatCode="General">
+                <c:pt idx="79" formatCode="General">
                   <c:v>6.0787599999999999</c:v>
                 </c:pt>
-                <c:pt idx="70" formatCode="General">
+                <c:pt idx="80" formatCode="General">
                   <c:v>6.2547199999999998</c:v>
                 </c:pt>
-                <c:pt idx="71" formatCode="General">
+                <c:pt idx="81" formatCode="General">
                   <c:v>6.2610799999999998</c:v>
                 </c:pt>
-                <c:pt idx="72" formatCode="General">
+                <c:pt idx="82" formatCode="General">
                   <c:v>6.2632700000000003</c:v>
                 </c:pt>
-                <c:pt idx="73" formatCode="General">
+                <c:pt idx="83" formatCode="General">
                   <c:v>6.5851100000000002</c:v>
                 </c:pt>
-                <c:pt idx="74" formatCode="General">
+                <c:pt idx="84" formatCode="General">
                   <c:v>6.2844100000000003</c:v>
                 </c:pt>
-                <c:pt idx="75" formatCode="General">
+                <c:pt idx="85" formatCode="General">
                   <c:v>6.4528800000000004</c:v>
                 </c:pt>
-                <c:pt idx="76" formatCode="General">
+                <c:pt idx="86" formatCode="General">
                   <c:v>6.4396199999999997</c:v>
                 </c:pt>
-                <c:pt idx="77" formatCode="General">
+                <c:pt idx="87" formatCode="General">
                   <c:v>6.4618900000000004</c:v>
                 </c:pt>
-                <c:pt idx="78" formatCode="General">
+                <c:pt idx="88" formatCode="General">
                   <c:v>6.5065400000000002</c:v>
                 </c:pt>
-                <c:pt idx="80" formatCode="General">
+                <c:pt idx="90" formatCode="General">
                   <c:v>6.6528</c:v>
                 </c:pt>
-                <c:pt idx="81" formatCode="General">
+                <c:pt idx="91" formatCode="General">
                   <c:v>6.6222700000000003</c:v>
                 </c:pt>
               </c:numCache>
@@ -1196,10 +1256,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$97</c:f>
+              <c:f>Sheet1!$B$3:$B$107</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1321,168 +1381,198 @@
                   <c:v>5184</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>5329</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5476</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>5600</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="43">
+                  <c:v>5625</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5776</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>5832</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="46">
+                  <c:v>5929</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6084</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>6100</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="49">
+                  <c:v>6241</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6561</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>6600</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="53">
+                  <c:v>6724</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>6859</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="55">
                   <c:v>7100</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="56">
                   <c:v>7600</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="57">
                   <c:v>8000</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="58">
                   <c:v>8100</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="59">
                   <c:v>8600</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="60">
                   <c:v>9100</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="61">
                   <c:v>9261</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="62">
                   <c:v>9600</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="63">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="64">
                   <c:v>10100</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="65">
                   <c:v>10600</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="66">
                   <c:v>10648</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="67">
                   <c:v>11100</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="68">
                   <c:v>11600</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="69">
                   <c:v>12100</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="70">
                   <c:v>12600</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="71">
                   <c:v>13100</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="72">
                   <c:v>13600</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="73">
                   <c:v>14100</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="74">
                   <c:v>14600</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="75">
                   <c:v>15100</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="76">
                   <c:v>15600</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="77">
                   <c:v>16100</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="78">
                   <c:v>16600</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="79">
                   <c:v>17100</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="80">
                   <c:v>17600</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="81">
                   <c:v>18100</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="82">
                   <c:v>18600</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="83">
                   <c:v>19100</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="84">
                   <c:v>19600</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="85">
                   <c:v>20100</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="86">
                   <c:v>20600</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="87">
                   <c:v>21100</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="88">
                   <c:v>21600</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="89">
                   <c:v>21952</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="90">
                   <c:v>22100</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="91">
                   <c:v>24000</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="92">
                   <c:v>27100</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="93">
                   <c:v>32768</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="94">
                   <c:v>37100</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="95">
                   <c:v>42875</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="96">
                   <c:v>50653</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="97">
                   <c:v>64000</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="98">
                   <c:v>74088</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="99">
                   <c:v>85184</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="100">
                   <c:v>91125</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="101">
                   <c:v>103823</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="102">
                   <c:v>100489</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="103">
                   <c:v>205379</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="104">
                   <c:v>300763</c:v>
                 </c:pt>
               </c:numCache>
@@ -1490,10 +1580,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$97</c:f>
+              <c:f>Sheet1!$F$3:$F$107</c:f>
               <c:numCache>
                 <c:formatCode>@</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="6" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1509,52 +1599,52 @@
                 <c:pt idx="36" formatCode="General">
                   <c:v>1.5160800000000001</c:v>
                 </c:pt>
-                <c:pt idx="41" formatCode="General">
+                <c:pt idx="45" formatCode="General">
                   <c:v>1.7073100000000001</c:v>
                 </c:pt>
-                <c:pt idx="44" formatCode="General">
+                <c:pt idx="54" formatCode="General">
                   <c:v>1.7757499999999999</c:v>
                 </c:pt>
-                <c:pt idx="47" formatCode="General">
+                <c:pt idx="57" formatCode="General">
                   <c:v>2.0869</c:v>
                 </c:pt>
-                <c:pt idx="51" formatCode="General">
+                <c:pt idx="61" formatCode="General">
                   <c:v>2.0419900000000002</c:v>
                 </c:pt>
-                <c:pt idx="56" formatCode="General">
+                <c:pt idx="66" formatCode="General">
                   <c:v>2.3207399999999998</c:v>
                 </c:pt>
-                <c:pt idx="79" formatCode="General">
+                <c:pt idx="89" formatCode="General">
                   <c:v>3.03931</c:v>
                 </c:pt>
-                <c:pt idx="83" formatCode="General">
+                <c:pt idx="93" formatCode="General">
                   <c:v>3.5956800000000002</c:v>
                 </c:pt>
-                <c:pt idx="85" formatCode="General">
+                <c:pt idx="95" formatCode="General">
                   <c:v>3.8520599999999998</c:v>
                 </c:pt>
-                <c:pt idx="86" formatCode="General">
+                <c:pt idx="96" formatCode="General">
                   <c:v>3.97126</c:v>
                 </c:pt>
-                <c:pt idx="87" formatCode="General">
+                <c:pt idx="97" formatCode="General">
                   <c:v>4.2911099999999998</c:v>
                 </c:pt>
-                <c:pt idx="88" formatCode="General">
+                <c:pt idx="98" formatCode="General">
                   <c:v>4.4571699999999996</c:v>
                 </c:pt>
-                <c:pt idx="89" formatCode="General">
+                <c:pt idx="99" formatCode="General">
                   <c:v>4.5895700000000001</c:v>
                 </c:pt>
-                <c:pt idx="90" formatCode="General">
+                <c:pt idx="100" formatCode="General">
                   <c:v>4.6817700000000002</c:v>
                 </c:pt>
-                <c:pt idx="91" formatCode="General">
+                <c:pt idx="101" formatCode="General">
                   <c:v>4.7963300000000002</c:v>
                 </c:pt>
-                <c:pt idx="93" formatCode="General">
+                <c:pt idx="103" formatCode="General">
                   <c:v>5.67401</c:v>
                 </c:pt>
-                <c:pt idx="94" formatCode="General">
+                <c:pt idx="104" formatCode="General">
                   <c:v>6.59</c:v>
                 </c:pt>
               </c:numCache>
@@ -1594,10 +1684,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$97</c:f>
+              <c:f>Sheet1!$B$3:$B$107</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1719,168 +1809,198 @@
                   <c:v>5184</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>5329</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5476</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>5600</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="43">
+                  <c:v>5625</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5776</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>5832</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="46">
+                  <c:v>5929</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6084</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>6100</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="49">
+                  <c:v>6241</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6561</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>6600</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="53">
+                  <c:v>6724</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>6859</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="55">
                   <c:v>7100</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="56">
                   <c:v>7600</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="57">
                   <c:v>8000</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="58">
                   <c:v>8100</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="59">
                   <c:v>8600</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="60">
                   <c:v>9100</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="61">
                   <c:v>9261</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="62">
                   <c:v>9600</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="63">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="64">
                   <c:v>10100</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="65">
                   <c:v>10600</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="66">
                   <c:v>10648</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="67">
                   <c:v>11100</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="68">
                   <c:v>11600</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="69">
                   <c:v>12100</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="70">
                   <c:v>12600</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="71">
                   <c:v>13100</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="72">
                   <c:v>13600</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="73">
                   <c:v>14100</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="74">
                   <c:v>14600</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="75">
                   <c:v>15100</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="76">
                   <c:v>15600</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="77">
                   <c:v>16100</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="78">
                   <c:v>16600</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="79">
                   <c:v>17100</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="80">
                   <c:v>17600</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="81">
                   <c:v>18100</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="82">
                   <c:v>18600</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="83">
                   <c:v>19100</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="84">
                   <c:v>19600</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="85">
                   <c:v>20100</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="86">
                   <c:v>20600</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="87">
                   <c:v>21100</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="88">
                   <c:v>21600</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="89">
                   <c:v>21952</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="90">
                   <c:v>22100</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="91">
                   <c:v>24000</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="92">
                   <c:v>27100</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="93">
                   <c:v>32768</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="94">
                   <c:v>37100</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="95">
                   <c:v>42875</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="96">
                   <c:v>50653</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="97">
                   <c:v>64000</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="98">
                   <c:v>74088</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="99">
                   <c:v>85184</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="100">
                   <c:v>91125</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="101">
                   <c:v>103823</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="102">
                   <c:v>100489</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="103">
                   <c:v>205379</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="104">
                   <c:v>300763</c:v>
                 </c:pt>
               </c:numCache>
@@ -1888,10 +2008,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$97</c:f>
+              <c:f>Sheet1!$E$3:$E$107</c:f>
               <c:numCache>
                 <c:formatCode>@</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="5" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1931,11 +2051,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="353146664"/>
-        <c:axId val="353144704"/>
+        <c:axId val="851556208"/>
+        <c:axId val="851562192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="353146664"/>
+        <c:axId val="851556208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2034,7 +2154,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="353144704"/>
+        <c:crossAx val="851562192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2042,7 +2162,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="353144704"/>
+        <c:axId val="851562192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2149,7 +2269,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="353146664"/>
+        <c:crossAx val="851556208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2338,10 +2458,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$97</c:f>
+              <c:f>Sheet1!$B$3:$B$107</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -2463,168 +2583,198 @@
                   <c:v>5184</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>5329</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5476</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>5600</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="43">
+                  <c:v>5625</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5776</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>5832</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="46">
+                  <c:v>5929</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6084</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>6100</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="49">
+                  <c:v>6241</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6561</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>6600</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="53">
+                  <c:v>6724</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>6859</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="55">
                   <c:v>7100</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="56">
                   <c:v>7600</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="57">
                   <c:v>8000</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="58">
                   <c:v>8100</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="59">
                   <c:v>8600</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="60">
                   <c:v>9100</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="61">
                   <c:v>9261</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="62">
                   <c:v>9600</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="63">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="64">
                   <c:v>10100</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="65">
                   <c:v>10600</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="66">
                   <c:v>10648</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="67">
                   <c:v>11100</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="68">
                   <c:v>11600</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="69">
                   <c:v>12100</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="70">
                   <c:v>12600</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="71">
                   <c:v>13100</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="72">
                   <c:v>13600</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="73">
                   <c:v>14100</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="74">
                   <c:v>14600</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="75">
                   <c:v>15100</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="76">
                   <c:v>15600</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="77">
                   <c:v>16100</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="78">
                   <c:v>16600</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="79">
                   <c:v>17100</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="80">
                   <c:v>17600</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="81">
                   <c:v>18100</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="82">
                   <c:v>18600</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="83">
                   <c:v>19100</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="84">
                   <c:v>19600</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="85">
                   <c:v>20100</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="86">
                   <c:v>20600</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="87">
                   <c:v>21100</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="88">
                   <c:v>21600</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="89">
                   <c:v>21952</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="90">
                   <c:v>22100</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="91">
                   <c:v>24000</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="92">
                   <c:v>27100</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="93">
                   <c:v>32768</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="94">
                   <c:v>37100</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="95">
                   <c:v>42875</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="96">
                   <c:v>50653</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="97">
                   <c:v>64000</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="98">
                   <c:v>74088</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="99">
                   <c:v>85184</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="100">
                   <c:v>91125</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="101">
                   <c:v>103823</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="102">
                   <c:v>100489</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="103">
                   <c:v>205379</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="104">
                   <c:v>300763</c:v>
                 </c:pt>
               </c:numCache>
@@ -2632,10 +2782,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$3:$H$97</c:f>
+              <c:f>Sheet1!$H$3:$H$107</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2690,22 +2840,455 @@
                 <c:pt idx="31">
                   <c:v>2.1131416066547066</c:v>
                 </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.5854014166247157</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.6009339086600116</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.3666897244867378</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.4458936862395517</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.8518540790000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2D</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="105"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1331</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2197</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3375</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4600</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4624</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4761</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4913</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5041</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5184</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5329</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5476</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5625</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5776</c:v>
+                </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.5854014166247157</c:v>
+                  <c:v>5832</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.6009339086600116</c:v>
+                  <c:v>5929</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6084</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.3666897244867378</c:v>
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6241</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.4458936862395517</c:v>
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6561</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6600</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.8518540790000002</c:v>
+                  <c:v>6724</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6859</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7100</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8100</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>8600</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9261</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>10100</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>10600</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>10648</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>11100</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>11600</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>12100</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>12600</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>13100</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>13600</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>14100</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>14600</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>15100</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>15600</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>16100</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>16600</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>17100</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>17600</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>18100</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>18600</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>19100</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>19600</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>20100</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>20600</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>21100</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>21600</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>21952</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>22100</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>27100</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>37100</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>42875</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>50653</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>74088</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>85184</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>91125</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>103823</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>100489</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>205379</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>300763</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="105"/>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.22540543628727924</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.50935953913066245</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.55264753493016572</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.53924551590302372</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.31030641621975658</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.44091065559309861</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.42094211080718119</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.43364600635486944</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.56679950868945905</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.44701375957141287</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.47981405612257172</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.51996744420482044</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.49704000570561252</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.78711984843170846</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.56409815185810097</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.54608777329424152</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.52691949998595589</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.68652899999999994</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.7864169999999999</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2742,10 +3325,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$97</c:f>
+              <c:f>Sheet1!$B$3:$B$107</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -2867,168 +3450,198 @@
                   <c:v>5184</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>5329</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5476</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>5600</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="43">
+                  <c:v>5625</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5776</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>5832</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="46">
+                  <c:v>5929</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6084</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>6100</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="49">
+                  <c:v>6241</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6561</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>6600</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="53">
+                  <c:v>6724</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>6859</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="55">
                   <c:v>7100</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="56">
                   <c:v>7600</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="57">
                   <c:v>8000</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="58">
                   <c:v>8100</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="59">
                   <c:v>8600</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="60">
                   <c:v>9100</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="61">
                   <c:v>9261</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="62">
                   <c:v>9600</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="63">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="64">
                   <c:v>10100</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="65">
                   <c:v>10600</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="66">
                   <c:v>10648</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="67">
                   <c:v>11100</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="68">
                   <c:v>11600</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="69">
                   <c:v>12100</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="70">
                   <c:v>12600</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="71">
                   <c:v>13100</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="72">
                   <c:v>13600</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="73">
                   <c:v>14100</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="74">
                   <c:v>14600</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="75">
                   <c:v>15100</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="76">
                   <c:v>15600</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="77">
                   <c:v>16100</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="78">
                   <c:v>16600</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="79">
                   <c:v>17100</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="80">
                   <c:v>17600</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="81">
                   <c:v>18100</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="82">
                   <c:v>18600</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="83">
                   <c:v>19100</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="84">
                   <c:v>19600</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="85">
                   <c:v>20100</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="86">
                   <c:v>20600</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="87">
                   <c:v>21100</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="88">
                   <c:v>21600</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="89">
                   <c:v>21952</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="90">
                   <c:v>22100</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="91">
                   <c:v>24000</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="92">
                   <c:v>27100</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="93">
                   <c:v>32768</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="94">
                   <c:v>37100</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="95">
                   <c:v>42875</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="96">
                   <c:v>50653</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="97">
                   <c:v>64000</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="98">
                   <c:v>74088</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="99">
                   <c:v>85184</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="100">
                   <c:v>91125</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="101">
                   <c:v>103823</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="102">
                   <c:v>100489</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="103">
                   <c:v>205379</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="104">
                   <c:v>300763</c:v>
                 </c:pt>
               </c:numCache>
@@ -3036,10 +3649,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$3:$J$97</c:f>
+              <c:f>Sheet1!$J$3:$J$107</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3064,49 +3677,49 @@
                 <c:pt idx="36">
                   <c:v>0.37003856681682823</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="45">
                   <c:v>0.29930481318341812</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="54">
                   <c:v>0.38613657534483004</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="57">
                   <c:v>0.5082739148996761</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="61">
                   <c:v>0.50095252500095289</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="63">
                   <c:v>0.65901600000000005</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="66">
                   <c:v>0.64137335836307663</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="89">
                   <c:v>0.87681527740716081</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="93">
                   <c:v>1.142216089194068</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="95">
                   <c:v>1.2287454240932043</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="96">
                   <c:v>1.2884979902903051</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="97">
                   <c:v>1.4253534713915326</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="98">
                   <c:v>1.5133950383885446</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="99">
                   <c:v>1.5381709953493281</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="100">
                   <c:v>1.5331952633226487</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="101">
                   <c:v>2.1273930000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -3146,10 +3759,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$97</c:f>
+              <c:f>Sheet1!$B$3:$B$107</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -3271,168 +3884,198 @@
                   <c:v>5184</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>5329</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5476</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>5600</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="43">
+                  <c:v>5625</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5776</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>5832</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="46">
+                  <c:v>5929</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6084</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>6100</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="49">
+                  <c:v>6241</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6561</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>6600</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="53">
+                  <c:v>6724</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>6859</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="55">
                   <c:v>7100</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="56">
                   <c:v>7600</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="57">
                   <c:v>8000</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="58">
                   <c:v>8100</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="59">
                   <c:v>8600</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="60">
                   <c:v>9100</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="61">
                   <c:v>9261</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="62">
                   <c:v>9600</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="63">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="64">
                   <c:v>10100</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="65">
                   <c:v>10600</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="66">
                   <c:v>10648</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="67">
                   <c:v>11100</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="68">
                   <c:v>11600</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="69">
                   <c:v>12100</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="70">
                   <c:v>12600</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="71">
                   <c:v>13100</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="72">
                   <c:v>13600</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="73">
                   <c:v>14100</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="74">
                   <c:v>14600</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="75">
                   <c:v>15100</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="76">
                   <c:v>15600</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="77">
                   <c:v>16100</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="78">
                   <c:v>16600</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="79">
                   <c:v>17100</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="80">
                   <c:v>17600</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="81">
                   <c:v>18100</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="82">
                   <c:v>18600</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="83">
                   <c:v>19100</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="84">
                   <c:v>19600</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="85">
                   <c:v>20100</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="86">
                   <c:v>20600</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="87">
                   <c:v>21100</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="88">
                   <c:v>21600</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="89">
                   <c:v>21952</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="90">
                   <c:v>22100</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="91">
                   <c:v>24000</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="92">
                   <c:v>27100</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="93">
                   <c:v>32768</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="94">
                   <c:v>37100</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="95">
                   <c:v>42875</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="96">
                   <c:v>50653</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="97">
                   <c:v>64000</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="98">
                   <c:v>74088</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="99">
                   <c:v>85184</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="100">
                   <c:v>91125</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="101">
                   <c:v>103823</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="102">
                   <c:v>100489</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="103">
                   <c:v>205379</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="104">
                   <c:v>300763</c:v>
                 </c:pt>
               </c:numCache>
@@ -3440,10 +4083,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$3:$L$97</c:f>
+              <c:f>Sheet1!$L$3:$L$107</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3456,10 +4099,10 @@
                 <c:pt idx="39">
                   <c:v>1.5</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="63">
                   <c:v>0.72589199999999998</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="101">
                   <c:v>2.499571</c:v>
                 </c:pt>
               </c:numCache>
@@ -3499,10 +4142,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$97</c:f>
+              <c:f>Sheet1!$B$3:$B$107</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -3624,168 +4267,198 @@
                   <c:v>5184</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>5329</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5476</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>5600</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="43">
+                  <c:v>5625</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5776</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>5832</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="46">
+                  <c:v>5929</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6084</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>6100</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="49">
+                  <c:v>6241</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6561</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>6600</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="53">
+                  <c:v>6724</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>6859</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="55">
                   <c:v>7100</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="56">
                   <c:v>7600</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="57">
                   <c:v>8000</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="58">
                   <c:v>8100</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="59">
                   <c:v>8600</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="60">
                   <c:v>9100</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="61">
                   <c:v>9261</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="62">
                   <c:v>9600</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="63">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="64">
                   <c:v>10100</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="65">
                   <c:v>10600</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="66">
                   <c:v>10648</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="67">
                   <c:v>11100</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="68">
                   <c:v>11600</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="69">
                   <c:v>12100</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="70">
                   <c:v>12600</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="71">
                   <c:v>13100</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="72">
                   <c:v>13600</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="73">
                   <c:v>14100</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="74">
                   <c:v>14600</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="75">
                   <c:v>15100</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="76">
                   <c:v>15600</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="77">
                   <c:v>16100</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="78">
                   <c:v>16600</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="79">
                   <c:v>17100</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="80">
                   <c:v>17600</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="81">
                   <c:v>18100</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="82">
                   <c:v>18600</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="83">
                   <c:v>19100</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="84">
                   <c:v>19600</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="85">
                   <c:v>20100</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="86">
                   <c:v>20600</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="87">
                   <c:v>21100</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="88">
                   <c:v>21600</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="89">
                   <c:v>21952</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="90">
                   <c:v>22100</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="91">
                   <c:v>24000</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="92">
                   <c:v>27100</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="93">
                   <c:v>32768</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="94">
                   <c:v>37100</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="95">
                   <c:v>42875</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="96">
                   <c:v>50653</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="97">
                   <c:v>64000</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="98">
                   <c:v>74088</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="99">
                   <c:v>85184</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="100">
                   <c:v>91125</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="101">
                   <c:v>103823</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="102">
                   <c:v>100489</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="103">
                   <c:v>205379</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="104">
                   <c:v>300763</c:v>
                 </c:pt>
               </c:numCache>
@@ -3793,10 +4466,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$3:$M$97</c:f>
+              <c:f>Sheet1!$M$3:$M$107</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="105"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3821,395 +4494,10 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="353141960"/>
-        <c:axId val="353141176"/>
+        <c:axId val="851557840"/>
+        <c:axId val="851551312"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
-                <c:tx>
-                  <c:v>2D</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent2"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent2"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent2"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$3:$B$97</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="95"/>
-                      <c:pt idx="0">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>25</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>27</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>50</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>100</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>125</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>200</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>300</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>350</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>400</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>500</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>600</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>700</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>800</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>850</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>900</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>1000</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>1024</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>1100</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>1331</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>1350</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>1600</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>1850</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>2100</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>2197</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>2600</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>3100</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>3375</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>3600</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>4096</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>4100</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>4600</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>4624</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>4761</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>4900</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>4913</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>5041</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>5100</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>5184</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>5600</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>5832</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>6100</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>6600</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>6859</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>7100</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>7600</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>8000</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>8100</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>8600</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>9100</c:v>
-                      </c:pt>
-                      <c:pt idx="51">
-                        <c:v>9261</c:v>
-                      </c:pt>
-                      <c:pt idx="52">
-                        <c:v>9600</c:v>
-                      </c:pt>
-                      <c:pt idx="53">
-                        <c:v>10000</c:v>
-                      </c:pt>
-                      <c:pt idx="54">
-                        <c:v>10100</c:v>
-                      </c:pt>
-                      <c:pt idx="55">
-                        <c:v>10600</c:v>
-                      </c:pt>
-                      <c:pt idx="56">
-                        <c:v>10648</c:v>
-                      </c:pt>
-                      <c:pt idx="57">
-                        <c:v>11100</c:v>
-                      </c:pt>
-                      <c:pt idx="58">
-                        <c:v>11600</c:v>
-                      </c:pt>
-                      <c:pt idx="59">
-                        <c:v>12100</c:v>
-                      </c:pt>
-                      <c:pt idx="60">
-                        <c:v>12600</c:v>
-                      </c:pt>
-                      <c:pt idx="61">
-                        <c:v>13100</c:v>
-                      </c:pt>
-                      <c:pt idx="62">
-                        <c:v>13600</c:v>
-                      </c:pt>
-                      <c:pt idx="63">
-                        <c:v>14100</c:v>
-                      </c:pt>
-                      <c:pt idx="64">
-                        <c:v>14600</c:v>
-                      </c:pt>
-                      <c:pt idx="65">
-                        <c:v>15100</c:v>
-                      </c:pt>
-                      <c:pt idx="66">
-                        <c:v>15600</c:v>
-                      </c:pt>
-                      <c:pt idx="67">
-                        <c:v>16100</c:v>
-                      </c:pt>
-                      <c:pt idx="68">
-                        <c:v>16600</c:v>
-                      </c:pt>
-                      <c:pt idx="69">
-                        <c:v>17100</c:v>
-                      </c:pt>
-                      <c:pt idx="70">
-                        <c:v>17600</c:v>
-                      </c:pt>
-                      <c:pt idx="71">
-                        <c:v>18100</c:v>
-                      </c:pt>
-                      <c:pt idx="72">
-                        <c:v>18600</c:v>
-                      </c:pt>
-                      <c:pt idx="73">
-                        <c:v>19100</c:v>
-                      </c:pt>
-                      <c:pt idx="74">
-                        <c:v>19600</c:v>
-                      </c:pt>
-                      <c:pt idx="75">
-                        <c:v>20100</c:v>
-                      </c:pt>
-                      <c:pt idx="76">
-                        <c:v>20600</c:v>
-                      </c:pt>
-                      <c:pt idx="77">
-                        <c:v>21100</c:v>
-                      </c:pt>
-                      <c:pt idx="78">
-                        <c:v>21600</c:v>
-                      </c:pt>
-                      <c:pt idx="79">
-                        <c:v>21952</c:v>
-                      </c:pt>
-                      <c:pt idx="80">
-                        <c:v>22100</c:v>
-                      </c:pt>
-                      <c:pt idx="81">
-                        <c:v>24000</c:v>
-                      </c:pt>
-                      <c:pt idx="82">
-                        <c:v>27100</c:v>
-                      </c:pt>
-                      <c:pt idx="83">
-                        <c:v>32768</c:v>
-                      </c:pt>
-                      <c:pt idx="84">
-                        <c:v>37100</c:v>
-                      </c:pt>
-                      <c:pt idx="85">
-                        <c:v>42875</c:v>
-                      </c:pt>
-                      <c:pt idx="86">
-                        <c:v>50653</c:v>
-                      </c:pt>
-                      <c:pt idx="87">
-                        <c:v>64000</c:v>
-                      </c:pt>
-                      <c:pt idx="88">
-                        <c:v>74088</c:v>
-                      </c:pt>
-                      <c:pt idx="89">
-                        <c:v>85184</c:v>
-                      </c:pt>
-                      <c:pt idx="90">
-                        <c:v>91125</c:v>
-                      </c:pt>
-                      <c:pt idx="91">
-                        <c:v>103823</c:v>
-                      </c:pt>
-                      <c:pt idx="92">
-                        <c:v>100489</c:v>
-                      </c:pt>
-                      <c:pt idx="93">
-                        <c:v>205379</c:v>
-                      </c:pt>
-                      <c:pt idx="94">
-                        <c:v>300763</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$I$3:$I$97</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="95"/>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>0.22540543628727924</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>0.50935953913066245</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>0.55264753493016572</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>0.53924551590302372</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>0.31030641621975658</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>0.44091065559309861</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>0.42094211080718119</c:v>
-                      </c:pt>
-                      <c:pt idx="53">
-                        <c:v>0.68652899999999994</c:v>
-                      </c:pt>
-                      <c:pt idx="92">
-                        <c:v>1.7864169999999999</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-              </c15:ser>
-            </c15:filteredLineSeries>
             <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="3"/>
@@ -4244,15 +4532,15 @@
                 <c:cat>
                   <c:numRef>
                     <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$3:$B$97</c15:sqref>
+                          <c15:sqref>Sheet1!$B$3:$B$107</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="95"/>
+                      <c:ptCount val="105"/>
                       <c:pt idx="0">
                         <c:v>10</c:v>
                       </c:pt>
@@ -4374,168 +4662,198 @@
                         <c:v>5184</c:v>
                       </c:pt>
                       <c:pt idx="40">
+                        <c:v>5329</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>5476</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
                         <c:v>5600</c:v>
                       </c:pt>
-                      <c:pt idx="41">
+                      <c:pt idx="43">
+                        <c:v>5625</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>5776</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
                         <c:v>5832</c:v>
                       </c:pt>
-                      <c:pt idx="42">
+                      <c:pt idx="46">
+                        <c:v>5929</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>6084</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
                         <c:v>6100</c:v>
                       </c:pt>
-                      <c:pt idx="43">
+                      <c:pt idx="49">
+                        <c:v>6241</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>6400</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>6561</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
                         <c:v>6600</c:v>
                       </c:pt>
-                      <c:pt idx="44">
+                      <c:pt idx="53">
+                        <c:v>6724</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
                         <c:v>6859</c:v>
                       </c:pt>
-                      <c:pt idx="45">
+                      <c:pt idx="55">
                         <c:v>7100</c:v>
                       </c:pt>
-                      <c:pt idx="46">
+                      <c:pt idx="56">
                         <c:v>7600</c:v>
                       </c:pt>
-                      <c:pt idx="47">
+                      <c:pt idx="57">
                         <c:v>8000</c:v>
                       </c:pt>
-                      <c:pt idx="48">
+                      <c:pt idx="58">
                         <c:v>8100</c:v>
                       </c:pt>
-                      <c:pt idx="49">
+                      <c:pt idx="59">
                         <c:v>8600</c:v>
                       </c:pt>
-                      <c:pt idx="50">
+                      <c:pt idx="60">
                         <c:v>9100</c:v>
                       </c:pt>
-                      <c:pt idx="51">
+                      <c:pt idx="61">
                         <c:v>9261</c:v>
                       </c:pt>
-                      <c:pt idx="52">
+                      <c:pt idx="62">
                         <c:v>9600</c:v>
                       </c:pt>
-                      <c:pt idx="53">
+                      <c:pt idx="63">
                         <c:v>10000</c:v>
                       </c:pt>
-                      <c:pt idx="54">
+                      <c:pt idx="64">
                         <c:v>10100</c:v>
                       </c:pt>
-                      <c:pt idx="55">
+                      <c:pt idx="65">
                         <c:v>10600</c:v>
                       </c:pt>
-                      <c:pt idx="56">
+                      <c:pt idx="66">
                         <c:v>10648</c:v>
                       </c:pt>
-                      <c:pt idx="57">
+                      <c:pt idx="67">
                         <c:v>11100</c:v>
                       </c:pt>
-                      <c:pt idx="58">
+                      <c:pt idx="68">
                         <c:v>11600</c:v>
                       </c:pt>
-                      <c:pt idx="59">
+                      <c:pt idx="69">
                         <c:v>12100</c:v>
                       </c:pt>
-                      <c:pt idx="60">
+                      <c:pt idx="70">
                         <c:v>12600</c:v>
                       </c:pt>
-                      <c:pt idx="61">
+                      <c:pt idx="71">
                         <c:v>13100</c:v>
                       </c:pt>
-                      <c:pt idx="62">
+                      <c:pt idx="72">
                         <c:v>13600</c:v>
                       </c:pt>
-                      <c:pt idx="63">
+                      <c:pt idx="73">
                         <c:v>14100</c:v>
                       </c:pt>
-                      <c:pt idx="64">
+                      <c:pt idx="74">
                         <c:v>14600</c:v>
                       </c:pt>
-                      <c:pt idx="65">
+                      <c:pt idx="75">
                         <c:v>15100</c:v>
                       </c:pt>
-                      <c:pt idx="66">
+                      <c:pt idx="76">
                         <c:v>15600</c:v>
                       </c:pt>
-                      <c:pt idx="67">
+                      <c:pt idx="77">
                         <c:v>16100</c:v>
                       </c:pt>
-                      <c:pt idx="68">
+                      <c:pt idx="78">
                         <c:v>16600</c:v>
                       </c:pt>
-                      <c:pt idx="69">
+                      <c:pt idx="79">
                         <c:v>17100</c:v>
                       </c:pt>
-                      <c:pt idx="70">
+                      <c:pt idx="80">
                         <c:v>17600</c:v>
                       </c:pt>
-                      <c:pt idx="71">
+                      <c:pt idx="81">
                         <c:v>18100</c:v>
                       </c:pt>
-                      <c:pt idx="72">
+                      <c:pt idx="82">
                         <c:v>18600</c:v>
                       </c:pt>
-                      <c:pt idx="73">
+                      <c:pt idx="83">
                         <c:v>19100</c:v>
                       </c:pt>
-                      <c:pt idx="74">
+                      <c:pt idx="84">
                         <c:v>19600</c:v>
                       </c:pt>
-                      <c:pt idx="75">
+                      <c:pt idx="85">
                         <c:v>20100</c:v>
                       </c:pt>
-                      <c:pt idx="76">
+                      <c:pt idx="86">
                         <c:v>20600</c:v>
                       </c:pt>
-                      <c:pt idx="77">
+                      <c:pt idx="87">
                         <c:v>21100</c:v>
                       </c:pt>
-                      <c:pt idx="78">
+                      <c:pt idx="88">
                         <c:v>21600</c:v>
                       </c:pt>
-                      <c:pt idx="79">
+                      <c:pt idx="89">
                         <c:v>21952</c:v>
                       </c:pt>
-                      <c:pt idx="80">
+                      <c:pt idx="90">
                         <c:v>22100</c:v>
                       </c:pt>
-                      <c:pt idx="81">
+                      <c:pt idx="91">
                         <c:v>24000</c:v>
                       </c:pt>
-                      <c:pt idx="82">
+                      <c:pt idx="92">
                         <c:v>27100</c:v>
                       </c:pt>
-                      <c:pt idx="83">
+                      <c:pt idx="93">
                         <c:v>32768</c:v>
                       </c:pt>
-                      <c:pt idx="84">
+                      <c:pt idx="94">
                         <c:v>37100</c:v>
                       </c:pt>
-                      <c:pt idx="85">
+                      <c:pt idx="95">
                         <c:v>42875</c:v>
                       </c:pt>
-                      <c:pt idx="86">
+                      <c:pt idx="96">
                         <c:v>50653</c:v>
                       </c:pt>
-                      <c:pt idx="87">
+                      <c:pt idx="97">
                         <c:v>64000</c:v>
                       </c:pt>
-                      <c:pt idx="88">
+                      <c:pt idx="98">
                         <c:v>74088</c:v>
                       </c:pt>
-                      <c:pt idx="89">
+                      <c:pt idx="99">
                         <c:v>85184</c:v>
                       </c:pt>
-                      <c:pt idx="90">
+                      <c:pt idx="100">
                         <c:v>91125</c:v>
                       </c:pt>
-                      <c:pt idx="91">
+                      <c:pt idx="101">
                         <c:v>103823</c:v>
                       </c:pt>
-                      <c:pt idx="92">
+                      <c:pt idx="102">
                         <c:v>100489</c:v>
                       </c:pt>
-                      <c:pt idx="93">
+                      <c:pt idx="103">
                         <c:v>205379</c:v>
                       </c:pt>
-                      <c:pt idx="94">
+                      <c:pt idx="104">
                         <c:v>300763</c:v>
                       </c:pt>
                     </c:numCache>
@@ -4544,15 +4862,15 @@
                 <c:val>
                   <c:numRef>
                     <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$K$3:$K$97</c15:sqref>
+                          <c15:sqref>Sheet1!$K$3:$K$107</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="95"/>
+                      <c:ptCount val="105"/>
                       <c:pt idx="1">
                         <c:v>0</c:v>
                       </c:pt>
@@ -4562,10 +4880,10 @@
                       <c:pt idx="18">
                         <c:v>0</c:v>
                       </c:pt>
-                      <c:pt idx="53">
+                      <c:pt idx="63">
                         <c:v>0.73226599999999997</c:v>
                       </c:pt>
-                      <c:pt idx="92">
+                      <c:pt idx="102">
                         <c:v>1.875286</c:v>
                       </c:pt>
                     </c:numCache>
@@ -4578,7 +4896,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="353141960"/>
+        <c:axId val="851557840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4677,7 +4995,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="353141176"/>
+        <c:crossAx val="851551312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4685,7 +5003,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="353141176"/>
+        <c:axId val="851551312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4792,7 +5110,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="353141960"/>
+        <c:crossAx val="851557840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6001,7 +6319,7 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6287,11 +6605,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M97"/>
+  <dimension ref="A1:M107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y23" sqref="Y23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6950,723 +7268,853 @@
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43">
-        <v>5600</v>
-      </c>
-      <c r="C43">
-        <v>7.1146700000000003</v>
-      </c>
-      <c r="D43">
-        <v>4.1109799999999996</v>
-      </c>
+        <v>5329</v>
+      </c>
+      <c r="C43"/>
+      <c r="D43"/>
       <c r="E43"/>
       <c r="F43"/>
+      <c r="I43">
+        <f>LOG10(2.714226)</f>
+        <v>0.43364600635486944</v>
+      </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44">
-        <v>5832</v>
+        <v>5476</v>
       </c>
       <c r="C44"/>
       <c r="D44"/>
       <c r="E44"/>
-      <c r="F44">
-        <v>1.7073100000000001</v>
-      </c>
-      <c r="J44">
-        <f>LOG10(1.992071)</f>
-        <v>0.29930481318341812</v>
+      <c r="F44"/>
+      <c r="I44">
+        <f>LOG10(3.688073)</f>
+        <v>0.56679950868945905</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45">
-        <v>6100</v>
+        <v>5600</v>
       </c>
       <c r="C45">
-        <v>6.5541299999999998</v>
+        <v>7.1146700000000003</v>
       </c>
       <c r="D45">
-        <v>4.3894299999999999</v>
+        <v>4.1109799999999996</v>
       </c>
       <c r="E45"/>
       <c r="F45"/>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46">
-        <v>6600</v>
-      </c>
-      <c r="C46">
-        <v>6.68879</v>
-      </c>
-      <c r="D46">
-        <v>4.4127599999999996</v>
-      </c>
+        <v>5625</v>
+      </c>
+      <c r="C46"/>
+      <c r="D46"/>
       <c r="E46"/>
       <c r="F46"/>
+      <c r="I46">
+        <f>LOG10(2.79907)</f>
+        <v>0.44701375957141287</v>
+      </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47">
-        <v>6859</v>
+        <v>5776</v>
       </c>
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47"/>
-      <c r="F47">
-        <v>1.7757499999999999</v>
-      </c>
-      <c r="J47">
-        <f>LOG10(2.432969)</f>
-        <v>0.38613657534483004</v>
+      <c r="F47"/>
+      <c r="I47">
+        <f>LOG10(3.018659)</f>
+        <v>0.47981405612257172</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48">
-        <v>7100</v>
-      </c>
-      <c r="C48">
-        <v>7.0179999999999998</v>
-      </c>
-      <c r="D48">
-        <v>4.6531500000000001</v>
-      </c>
+        <v>5832</v>
+      </c>
+      <c r="C48"/>
+      <c r="D48"/>
       <c r="E48"/>
-      <c r="F48"/>
-      <c r="H48">
-        <f>LOG10(384.947423)</f>
-        <v>2.5854014166247157</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>1.7073100000000001</v>
+      </c>
+      <c r="J48">
+        <f>LOG10(1.992071)</f>
+        <v>0.29930481318341812</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49">
-        <v>7600</v>
-      </c>
-      <c r="C49">
-        <v>7.0697099999999997</v>
-      </c>
-      <c r="D49">
-        <v>4.6643699999999999</v>
-      </c>
+        <v>5929</v>
+      </c>
+      <c r="C49"/>
+      <c r="D49"/>
       <c r="E49"/>
       <c r="F49"/>
-      <c r="H49">
-        <f>LOG10(398.964183)</f>
-        <v>2.6009339086600116</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I49">
+        <f>LOG10(3.311063)</f>
+        <v>0.51996744420482044</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50">
-        <v>8000</v>
+        <v>6084</v>
       </c>
       <c r="C50"/>
       <c r="D50"/>
       <c r="E50"/>
-      <c r="F50">
-        <v>2.0869</v>
-      </c>
-      <c r="J50">
-        <f>LOG10(3.223101)</f>
-        <v>0.5082739148996761</v>
-      </c>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F50"/>
+      <c r="I50">
+        <f>LOG10(3.140798)</f>
+        <v>0.49704000570561252</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51">
-        <v>8100</v>
+        <v>6100</v>
       </c>
       <c r="C51">
-        <v>7.3265599999999997</v>
+        <v>6.5541299999999998</v>
       </c>
       <c r="D51">
-        <v>4.9554400000000003</v>
+        <v>4.3894299999999999</v>
       </c>
       <c r="E51"/>
       <c r="F51"/>
-      <c r="H51">
-        <f>LOG10(232.642858)</f>
-        <v>2.3666897244867378</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52">
-        <v>8600</v>
+        <v>6241</v>
       </c>
       <c r="C52"/>
-      <c r="D52">
-        <v>4.9455200000000001</v>
-      </c>
+      <c r="D52"/>
       <c r="E52"/>
       <c r="F52"/>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I52">
+        <f>LOG10(6.125194)</f>
+        <v>0.78711984843170846</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53">
-        <v>9100</v>
-      </c>
-      <c r="C53">
-        <v>7.3402599999999998</v>
-      </c>
-      <c r="D53">
-        <v>4.9771200000000002</v>
-      </c>
+        <v>6400</v>
+      </c>
+      <c r="C53"/>
+      <c r="D53"/>
       <c r="E53"/>
       <c r="F53"/>
-      <c r="H53">
-        <f>LOG10(279.186032)</f>
-        <v>2.4458936862395517</v>
-      </c>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I53">
+        <f>LOG10(3.665204)</f>
+        <v>0.56409815185810097</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54">
-        <v>9261</v>
+        <v>6561</v>
       </c>
       <c r="C54"/>
       <c r="D54"/>
       <c r="E54"/>
-      <c r="F54">
-        <v>2.0419900000000002</v>
-      </c>
-      <c r="J54">
-        <f>LOG10(3.169221)</f>
-        <v>0.50095252500095289</v>
-      </c>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F54"/>
+      <c r="I54">
+        <f>LOG10(3.516315)</f>
+        <v>0.54608777329424152</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55">
-        <v>9600</v>
-      </c>
-      <c r="C55"/>
+        <v>6600</v>
+      </c>
+      <c r="C55">
+        <v>6.68879</v>
+      </c>
       <c r="D55">
-        <v>5.2140300000000002</v>
+        <v>4.4127599999999996</v>
       </c>
       <c r="E55"/>
       <c r="F55"/>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56">
-        <v>10000</v>
+        <v>6724</v>
       </c>
       <c r="C56"/>
       <c r="D56"/>
       <c r="E56"/>
       <c r="F56"/>
-      <c r="H56" s="8">
-        <v>2.8518540790000002</v>
-      </c>
-      <c r="I56" s="8">
-        <v>0.68652899999999994</v>
-      </c>
-      <c r="J56" s="8">
-        <v>0.65901600000000005</v>
-      </c>
-      <c r="K56" s="8">
-        <v>0.73226599999999997</v>
-      </c>
-      <c r="L56" s="8">
-        <v>0.72589199999999998</v>
-      </c>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I56">
+        <f>LOG10(3.364492)</f>
+        <v>0.52691949998595589</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57">
-        <v>10100</v>
-      </c>
-      <c r="C57">
-        <v>7.6825700000000001</v>
-      </c>
-      <c r="D57">
-        <v>5.1852200000000002</v>
-      </c>
+        <v>6859</v>
+      </c>
+      <c r="C57"/>
+      <c r="D57"/>
       <c r="E57"/>
-      <c r="F57"/>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <v>1.7757499999999999</v>
+      </c>
+      <c r="J57">
+        <f>LOG10(2.432969)</f>
+        <v>0.38613657534483004</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58">
-        <v>10600</v>
-      </c>
-      <c r="C58"/>
+        <v>7100</v>
+      </c>
+      <c r="C58">
+        <v>7.0179999999999998</v>
+      </c>
       <c r="D58">
-        <v>5.1173099999999998</v>
+        <v>4.6531500000000001</v>
       </c>
       <c r="E58"/>
       <c r="F58"/>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H58">
+        <f>LOG10(384.947423)</f>
+        <v>2.5854014166247157</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59">
+        <v>7600</v>
+      </c>
+      <c r="C59">
+        <v>7.0697099999999997</v>
+      </c>
+      <c r="D59">
+        <v>4.6643699999999999</v>
+      </c>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="H59">
+        <f>LOG10(398.964183)</f>
+        <v>2.6009339086600116</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>8000</v>
+      </c>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60">
+        <v>2.0869</v>
+      </c>
+      <c r="J60">
+        <f>LOG10(3.223101)</f>
+        <v>0.5082739148996761</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>8100</v>
+      </c>
+      <c r="C61">
+        <v>7.3265599999999997</v>
+      </c>
+      <c r="D61">
+        <v>4.9554400000000003</v>
+      </c>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="H61">
+        <f>LOG10(232.642858)</f>
+        <v>2.3666897244867378</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>8600</v>
+      </c>
+      <c r="C62"/>
+      <c r="D62">
+        <v>4.9455200000000001</v>
+      </c>
+      <c r="E62"/>
+      <c r="F62"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>9100</v>
+      </c>
+      <c r="C63">
+        <v>7.3402599999999998</v>
+      </c>
+      <c r="D63">
+        <v>4.9771200000000002</v>
+      </c>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="H63">
+        <f>LOG10(279.186032)</f>
+        <v>2.4458936862395517</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>9261</v>
+      </c>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64">
+        <v>2.0419900000000002</v>
+      </c>
+      <c r="J64">
+        <f>LOG10(3.169221)</f>
+        <v>0.50095252500095289</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>9600</v>
+      </c>
+      <c r="C65"/>
+      <c r="D65">
+        <v>5.2140300000000002</v>
+      </c>
+      <c r="E65"/>
+      <c r="F65"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>10000</v>
+      </c>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="H66" s="8">
+        <v>2.8518540790000002</v>
+      </c>
+      <c r="I66" s="8">
+        <v>0.68652899999999994</v>
+      </c>
+      <c r="J66" s="8">
+        <v>0.65901600000000005</v>
+      </c>
+      <c r="K66" s="8">
+        <v>0.73226599999999997</v>
+      </c>
+      <c r="L66" s="8">
+        <v>0.72589199999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>10100</v>
+      </c>
+      <c r="C67">
+        <v>7.6825700000000001</v>
+      </c>
+      <c r="D67">
+        <v>5.1852200000000002</v>
+      </c>
+      <c r="E67"/>
+      <c r="F67"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>10600</v>
+      </c>
+      <c r="C68"/>
+      <c r="D68">
+        <v>5.1173099999999998</v>
+      </c>
+      <c r="E68"/>
+      <c r="F68"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B69">
         <v>10648</v>
       </c>
-      <c r="C59"/>
-      <c r="D59"/>
-      <c r="E59"/>
-      <c r="F59">
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69">
         <v>2.3207399999999998</v>
       </c>
-      <c r="J59">
+      <c r="J69">
         <f>LOG10(4.378984)</f>
         <v>0.64137335836307663</v>
       </c>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B60">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B70">
         <v>11100</v>
       </c>
-      <c r="C60">
+      <c r="C70">
         <v>8.0677099999999999</v>
       </c>
-      <c r="D60">
+      <c r="D70">
         <v>5.4143999999999997</v>
-      </c>
-      <c r="E60"/>
-      <c r="F60"/>
-    </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B61">
-        <v>11600</v>
-      </c>
-      <c r="C61"/>
-      <c r="D61">
-        <v>5.4277300000000004</v>
-      </c>
-      <c r="E61"/>
-      <c r="F61"/>
-    </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B62">
-        <v>12100</v>
-      </c>
-      <c r="C62">
-        <v>7.6545699999999997</v>
-      </c>
-      <c r="D62">
-        <v>5.3865999999999996</v>
-      </c>
-      <c r="E62"/>
-      <c r="F62"/>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B63">
-        <v>12600</v>
-      </c>
-      <c r="C63"/>
-      <c r="D63">
-        <v>5.6473199999999997</v>
-      </c>
-      <c r="E63"/>
-      <c r="F63"/>
-    </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B64">
-        <v>13100</v>
-      </c>
-      <c r="C64">
-        <v>8.1456800000000005</v>
-      </c>
-      <c r="D64">
-        <v>5.6406400000000003</v>
-      </c>
-      <c r="E64"/>
-      <c r="F64"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65">
-        <v>13600</v>
-      </c>
-      <c r="C65"/>
-      <c r="D65">
-        <v>5.6085000000000003</v>
-      </c>
-      <c r="E65"/>
-      <c r="F65"/>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B66">
-        <v>14100</v>
-      </c>
-      <c r="C66">
-        <v>8.6444899999999993</v>
-      </c>
-      <c r="D66">
-        <v>5.8101200000000004</v>
-      </c>
-      <c r="E66"/>
-      <c r="F66"/>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B67">
-        <v>14600</v>
-      </c>
-      <c r="C67"/>
-      <c r="D67">
-        <v>5.8166399999999996</v>
-      </c>
-      <c r="E67"/>
-      <c r="F67"/>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B68">
-        <v>15100</v>
-      </c>
-      <c r="C68">
-        <v>8.5376600000000007</v>
-      </c>
-      <c r="D68">
-        <v>5.8336100000000002</v>
-      </c>
-      <c r="E68"/>
-      <c r="F68"/>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B69">
-        <v>15600</v>
-      </c>
-      <c r="C69"/>
-      <c r="D69">
-        <v>5.8480100000000004</v>
-      </c>
-      <c r="E69"/>
-      <c r="F69"/>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B70">
-        <v>16100</v>
-      </c>
-      <c r="C70"/>
-      <c r="D70">
-        <v>6.0638100000000001</v>
       </c>
       <c r="E70"/>
       <c r="F70"/>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B71">
-        <v>16600</v>
+        <v>11600</v>
       </c>
       <c r="C71"/>
       <c r="D71">
-        <v>6.0171099999999997</v>
+        <v>5.4277300000000004</v>
       </c>
       <c r="E71"/>
       <c r="F71"/>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B72">
-        <v>17100</v>
-      </c>
-      <c r="C72"/>
+        <v>12100</v>
+      </c>
+      <c r="C72">
+        <v>7.6545699999999997</v>
+      </c>
       <c r="D72">
-        <v>6.0787599999999999</v>
+        <v>5.3865999999999996</v>
       </c>
       <c r="E72"/>
       <c r="F72"/>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B73">
-        <v>17600</v>
+        <v>12600</v>
       </c>
       <c r="C73"/>
       <c r="D73">
-        <v>6.2547199999999998</v>
+        <v>5.6473199999999997</v>
       </c>
       <c r="E73"/>
       <c r="F73"/>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B74">
-        <v>18100</v>
-      </c>
-      <c r="C74"/>
+        <v>13100</v>
+      </c>
+      <c r="C74">
+        <v>8.1456800000000005</v>
+      </c>
       <c r="D74">
-        <v>6.2610799999999998</v>
+        <v>5.6406400000000003</v>
       </c>
       <c r="E74"/>
       <c r="F74"/>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B75">
-        <v>18600</v>
+        <v>13600</v>
       </c>
       <c r="C75"/>
       <c r="D75">
-        <v>6.2632700000000003</v>
+        <v>5.6085000000000003</v>
       </c>
       <c r="E75"/>
       <c r="F75"/>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B76">
-        <v>19100</v>
-      </c>
-      <c r="C76"/>
+        <v>14100</v>
+      </c>
+      <c r="C76">
+        <v>8.6444899999999993</v>
+      </c>
       <c r="D76">
-        <v>6.5851100000000002</v>
+        <v>5.8101200000000004</v>
       </c>
       <c r="E76"/>
       <c r="F76"/>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B77">
-        <v>19600</v>
+        <v>14600</v>
       </c>
       <c r="C77"/>
       <c r="D77">
-        <v>6.2844100000000003</v>
+        <v>5.8166399999999996</v>
       </c>
       <c r="E77"/>
       <c r="F77"/>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B78">
-        <v>20100</v>
-      </c>
-      <c r="C78"/>
+        <v>15100</v>
+      </c>
+      <c r="C78">
+        <v>8.5376600000000007</v>
+      </c>
       <c r="D78">
-        <v>6.4528800000000004</v>
+        <v>5.8336100000000002</v>
       </c>
       <c r="E78"/>
       <c r="F78"/>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B79">
-        <v>20600</v>
+        <v>15600</v>
       </c>
       <c r="C79"/>
       <c r="D79">
-        <v>6.4396199999999997</v>
+        <v>5.8480100000000004</v>
       </c>
       <c r="E79"/>
       <c r="F79"/>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B80">
-        <v>21100</v>
+        <v>16100</v>
       </c>
       <c r="C80"/>
       <c r="D80">
-        <v>6.4618900000000004</v>
+        <v>6.0638100000000001</v>
       </c>
       <c r="E80"/>
       <c r="F80"/>
     </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B81">
-        <v>21600</v>
+        <v>16600</v>
       </c>
       <c r="C81"/>
       <c r="D81">
-        <v>6.5065400000000002</v>
+        <v>6.0171099999999997</v>
       </c>
       <c r="E81"/>
       <c r="F81"/>
     </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B82">
-        <v>21952</v>
+        <v>17100</v>
       </c>
       <c r="C82"/>
-      <c r="D82"/>
+      <c r="D82">
+        <v>6.0787599999999999</v>
+      </c>
       <c r="E82"/>
-      <c r="F82">
-        <v>3.03931</v>
-      </c>
-      <c r="J82">
-        <f>LOG10(7.530352)</f>
-        <v>0.87681527740716081</v>
-      </c>
-    </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F82"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B83">
-        <v>22100</v>
+        <v>17600</v>
       </c>
       <c r="C83"/>
       <c r="D83">
-        <v>6.6528</v>
+        <v>6.2547199999999998</v>
       </c>
       <c r="E83"/>
       <c r="F83"/>
     </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B84">
-        <v>24000</v>
+        <v>18100</v>
       </c>
       <c r="C84"/>
       <c r="D84">
-        <v>6.6222700000000003</v>
+        <v>6.2610799999999998</v>
       </c>
       <c r="E84"/>
       <c r="F84"/>
     </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B85">
-        <v>27100</v>
-      </c>
-      <c r="C85">
-        <v>9.1123799999999999</v>
-      </c>
-      <c r="D85"/>
+        <v>18600</v>
+      </c>
+      <c r="C85"/>
+      <c r="D85">
+        <v>6.2632700000000003</v>
+      </c>
       <c r="E85"/>
       <c r="F85"/>
     </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B86">
-        <v>32768</v>
+        <v>19100</v>
       </c>
       <c r="C86"/>
-      <c r="D86"/>
+      <c r="D86">
+        <v>6.5851100000000002</v>
+      </c>
       <c r="E86"/>
-      <c r="F86">
-        <v>3.5956800000000002</v>
-      </c>
-      <c r="J86">
-        <f>LOG10(13.87446)</f>
-        <v>1.142216089194068</v>
-      </c>
-    </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F86"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B87">
-        <v>37100</v>
-      </c>
-      <c r="C87">
-        <v>9.9929900000000007</v>
-      </c>
-      <c r="D87"/>
+        <v>19600</v>
+      </c>
+      <c r="C87"/>
+      <c r="D87">
+        <v>6.2844100000000003</v>
+      </c>
       <c r="E87"/>
       <c r="F87"/>
     </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B88">
-        <v>42875</v>
+        <v>20100</v>
       </c>
       <c r="C88"/>
-      <c r="D88"/>
+      <c r="D88">
+        <v>6.4528800000000004</v>
+      </c>
       <c r="E88"/>
-      <c r="F88">
-        <v>3.8520599999999998</v>
-      </c>
-      <c r="J88">
-        <f>LOG10(16.933449)</f>
-        <v>1.2287454240932043</v>
-      </c>
-    </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F88"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B89">
-        <v>50653</v>
+        <v>20600</v>
       </c>
       <c r="C89"/>
-      <c r="D89"/>
+      <c r="D89">
+        <v>6.4396199999999997</v>
+      </c>
       <c r="E89"/>
-      <c r="F89">
-        <v>3.97126</v>
-      </c>
-      <c r="J89">
-        <f>LOG10(19.431127)</f>
-        <v>1.2884979902903051</v>
-      </c>
-    </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F89"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B90">
-        <v>64000</v>
+        <v>21100</v>
       </c>
       <c r="C90"/>
-      <c r="D90"/>
+      <c r="D90">
+        <v>6.4618900000000004</v>
+      </c>
       <c r="E90"/>
-      <c r="F90">
-        <v>4.2911099999999998</v>
-      </c>
-      <c r="J90">
-        <f>LOG10(26.628915)</f>
-        <v>1.4253534713915326</v>
-      </c>
-    </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F90"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B91">
-        <v>74088</v>
+        <v>21600</v>
       </c>
       <c r="C91"/>
-      <c r="D91"/>
+      <c r="D91">
+        <v>6.5065400000000002</v>
+      </c>
       <c r="E91"/>
-      <c r="F91">
-        <v>4.4571699999999996</v>
-      </c>
-      <c r="J91">
-        <f>LOG10(32.613322)</f>
-        <v>1.5133950383885446</v>
-      </c>
-    </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F91"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B92">
-        <v>85184</v>
+        <v>21952</v>
       </c>
       <c r="C92"/>
       <c r="D92"/>
       <c r="E92"/>
       <c r="F92">
-        <v>4.5895700000000001</v>
+        <v>3.03931</v>
       </c>
       <c r="J92">
-        <f>LOG10(34.527966)</f>
-        <v>1.5381709953493281</v>
-      </c>
-    </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
+        <f>LOG10(7.530352)</f>
+        <v>0.87681527740716081</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B93">
-        <v>91125</v>
+        <v>22100</v>
       </c>
       <c r="C93"/>
-      <c r="D93"/>
+      <c r="D93">
+        <v>6.6528</v>
+      </c>
       <c r="E93"/>
-      <c r="F93">
-        <v>4.6817700000000002</v>
-      </c>
-      <c r="J93">
-        <f>LOG10(34.134635)</f>
-        <v>1.5331952633226487</v>
-      </c>
-    </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F93"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B94">
-        <v>103823</v>
+        <v>24000</v>
       </c>
       <c r="C94"/>
-      <c r="D94"/>
+      <c r="D94">
+        <v>6.6222700000000003</v>
+      </c>
       <c r="E94"/>
-      <c r="F94">
-        <v>4.7963300000000002</v>
-      </c>
-      <c r="J94" s="8">
-        <v>2.1273930000000001</v>
-      </c>
-      <c r="L94" s="8">
-        <v>2.499571</v>
-      </c>
-    </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F94"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B95">
-        <v>100489</v>
-      </c>
-      <c r="C95"/>
+        <v>27100</v>
+      </c>
+      <c r="C95">
+        <v>9.1123799999999999</v>
+      </c>
       <c r="D95"/>
       <c r="E95"/>
       <c r="F95"/>
-      <c r="I95" s="8">
-        <v>1.7864169999999999</v>
-      </c>
-      <c r="K95" s="8">
-        <v>1.875286</v>
-      </c>
-    </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B96">
-        <v>205379</v>
+        <v>32768</v>
       </c>
       <c r="C96"/>
       <c r="D96"/>
       <c r="E96"/>
       <c r="F96">
-        <v>5.67401</v>
-      </c>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+        <v>3.5956800000000002</v>
+      </c>
+      <c r="J96">
+        <f>LOG10(13.87446)</f>
+        <v>1.142216089194068</v>
+      </c>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B97">
-        <v>300763</v>
-      </c>
-      <c r="C97"/>
+        <v>37100</v>
+      </c>
+      <c r="C97">
+        <v>9.9929900000000007</v>
+      </c>
       <c r="D97"/>
       <c r="E97"/>
-      <c r="F97">
+      <c r="F97"/>
+    </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>42875</v>
+      </c>
+      <c r="C98"/>
+      <c r="D98"/>
+      <c r="E98"/>
+      <c r="F98">
+        <v>3.8520599999999998</v>
+      </c>
+      <c r="J98">
+        <f>LOG10(16.933449)</f>
+        <v>1.2287454240932043</v>
+      </c>
+    </row>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>50653</v>
+      </c>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99"/>
+      <c r="F99">
+        <v>3.97126</v>
+      </c>
+      <c r="J99">
+        <f>LOG10(19.431127)</f>
+        <v>1.2884979902903051</v>
+      </c>
+    </row>
+    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>64000</v>
+      </c>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100"/>
+      <c r="F100">
+        <v>4.2911099999999998</v>
+      </c>
+      <c r="J100">
+        <f>LOG10(26.628915)</f>
+        <v>1.4253534713915326</v>
+      </c>
+    </row>
+    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>74088</v>
+      </c>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="F101">
+        <v>4.4571699999999996</v>
+      </c>
+      <c r="J101">
+        <f>LOG10(32.613322)</f>
+        <v>1.5133950383885446</v>
+      </c>
+    </row>
+    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>85184</v>
+      </c>
+      <c r="C102"/>
+      <c r="D102"/>
+      <c r="E102"/>
+      <c r="F102">
+        <v>4.5895700000000001</v>
+      </c>
+      <c r="J102">
+        <f>LOG10(34.527966)</f>
+        <v>1.5381709953493281</v>
+      </c>
+    </row>
+    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>91125</v>
+      </c>
+      <c r="C103"/>
+      <c r="D103"/>
+      <c r="E103"/>
+      <c r="F103">
+        <v>4.6817700000000002</v>
+      </c>
+      <c r="J103">
+        <f>LOG10(34.134635)</f>
+        <v>1.5331952633226487</v>
+      </c>
+    </row>
+    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>103823</v>
+      </c>
+      <c r="C104"/>
+      <c r="D104"/>
+      <c r="E104"/>
+      <c r="F104">
+        <v>4.7963300000000002</v>
+      </c>
+      <c r="J104" s="8">
+        <v>2.1273930000000001</v>
+      </c>
+      <c r="L104" s="8">
+        <v>2.499571</v>
+      </c>
+    </row>
+    <row r="105" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <v>100489</v>
+      </c>
+      <c r="C105"/>
+      <c r="D105"/>
+      <c r="E105"/>
+      <c r="F105"/>
+      <c r="I105" s="8">
+        <v>1.7864169999999999</v>
+      </c>
+      <c r="K105" s="8">
+        <v>1.875286</v>
+      </c>
+    </row>
+    <row r="106" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <v>205379</v>
+      </c>
+      <c r="C106"/>
+      <c r="D106"/>
+      <c r="E106"/>
+      <c r="F106">
+        <v>5.67401</v>
+      </c>
+    </row>
+    <row r="107" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <v>300763</v>
+      </c>
+      <c r="C107"/>
+      <c r="D107"/>
+      <c r="E107"/>
+      <c r="F107">
         <v>6.59</v>
       </c>
     </row>

--- a/Project2/report.xlsx
+++ b/Project2/report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sanjay\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sanjay\Documents\GitHub\COP5615-Projects\Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3300,11 +3300,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="398061976"/>
-        <c:axId val="398059624"/>
+        <c:axId val="351923912"/>
+        <c:axId val="353585752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="398061976"/>
+        <c:axId val="351923912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3403,7 +3403,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398059624"/>
+        <c:crossAx val="353585752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3411,7 +3411,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="398059624"/>
+        <c:axId val="353585752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3518,7 +3518,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398061976"/>
+        <c:crossAx val="351923912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6012,9 +6012,6 @@
                 <c:pt idx="46">
                   <c:v>0.36326120658093475</c:v>
                 </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.5</c:v>
-                </c:pt>
                 <c:pt idx="55">
                   <c:v>0.3698328965297053</c:v>
                 </c:pt>
@@ -6518,12 +6515,12 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="398053744"/>
-        <c:axId val="398054136"/>
+        <c:axId val="353580656"/>
+        <c:axId val="353581048"/>
         <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="398053744"/>
+        <c:axId val="353580656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6622,7 +6619,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398054136"/>
+        <c:crossAx val="353581048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6630,7 +6627,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="398054136"/>
+        <c:axId val="353581048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6737,7 +6734,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398053744"/>
+        <c:crossAx val="353580656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8234,9 +8231,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K94" sqref="K94"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N54" sqref="N54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9204,9 +9201,6 @@
         <f>LOG10(2.63598)</f>
         <v>0.42094211080718119</v>
       </c>
-      <c r="N52">
-        <v>1.5</v>
-      </c>
       <c r="O52" s="10"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.25">

--- a/Project2/report.xlsx
+++ b/Project2/report.xlsx
@@ -304,10 +304,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$125</c:f>
+              <c:f>Sheet1!$B$3:$B$133</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="123"/>
+                <c:ptCount val="131"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -651,30 +651,54 @@
                   <c:v>42875</c:v>
                 </c:pt>
                 <c:pt idx="114">
+                  <c:v>45369</c:v>
+                </c:pt>
+                <c:pt idx="115">
                   <c:v>50653</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="116">
+                  <c:v>55225</c:v>
+                </c:pt>
+                <c:pt idx="117">
                   <c:v>64000</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="118">
+                  <c:v>65025</c:v>
+                </c:pt>
+                <c:pt idx="119">
                   <c:v>74088</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="120">
+                  <c:v>75076</c:v>
+                </c:pt>
+                <c:pt idx="121">
                   <c:v>85184</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="122">
+                  <c:v>85264</c:v>
+                </c:pt>
+                <c:pt idx="123">
                   <c:v>91125</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="124">
+                  <c:v>95481</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>100489</c:v>
+                </c:pt>
+                <c:pt idx="126">
                   <c:v>103823</c:v>
                 </c:pt>
-                <c:pt idx="120">
-                  <c:v>100489</c:v>
-                </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="127">
+                  <c:v>105625</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>205209</c:v>
+                </c:pt>
+                <c:pt idx="129">
                   <c:v>205379</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="130">
                   <c:v>300763</c:v>
                 </c:pt>
               </c:numCache>
@@ -682,10 +706,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$125</c:f>
+              <c:f>Sheet1!$C$3:$C$133</c:f>
               <c:numCache>
                 <c:formatCode>@</c:formatCode>
-                <c:ptCount val="123"/>
+                <c:ptCount val="131"/>
                 <c:pt idx="5" formatCode="General">
                   <c:v>0.52922599999999997</c:v>
                 </c:pt>
@@ -825,10 +849,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$125</c:f>
+              <c:f>Sheet1!$B$3:$B$133</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="123"/>
+                <c:ptCount val="131"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1172,30 +1196,54 @@
                   <c:v>42875</c:v>
                 </c:pt>
                 <c:pt idx="114">
+                  <c:v>45369</c:v>
+                </c:pt>
+                <c:pt idx="115">
                   <c:v>50653</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="116">
+                  <c:v>55225</c:v>
+                </c:pt>
+                <c:pt idx="117">
                   <c:v>64000</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="118">
+                  <c:v>65025</c:v>
+                </c:pt>
+                <c:pt idx="119">
                   <c:v>74088</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="120">
+                  <c:v>75076</c:v>
+                </c:pt>
+                <c:pt idx="121">
                   <c:v>85184</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="122">
+                  <c:v>85264</c:v>
+                </c:pt>
+                <c:pt idx="123">
                   <c:v>91125</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="124">
+                  <c:v>95481</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>100489</c:v>
+                </c:pt>
+                <c:pt idx="126">
                   <c:v>103823</c:v>
                 </c:pt>
-                <c:pt idx="120">
-                  <c:v>100489</c:v>
-                </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="127">
+                  <c:v>105625</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>205209</c:v>
+                </c:pt>
+                <c:pt idx="129">
                   <c:v>205379</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="130">
                   <c:v>300763</c:v>
                 </c:pt>
               </c:numCache>
@@ -1203,10 +1251,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$125</c:f>
+              <c:f>Sheet1!$D$3:$D$133</c:f>
               <c:numCache>
                 <c:formatCode>@</c:formatCode>
-                <c:ptCount val="123"/>
+                <c:ptCount val="131"/>
                 <c:pt idx="5" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1334,10 +1382,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$125</c:f>
+              <c:f>Sheet1!$B$3:$B$133</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="123"/>
+                <c:ptCount val="131"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1681,30 +1729,54 @@
                   <c:v>42875</c:v>
                 </c:pt>
                 <c:pt idx="114">
+                  <c:v>45369</c:v>
+                </c:pt>
+                <c:pt idx="115">
                   <c:v>50653</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="116">
+                  <c:v>55225</c:v>
+                </c:pt>
+                <c:pt idx="117">
                   <c:v>64000</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="118">
+                  <c:v>65025</c:v>
+                </c:pt>
+                <c:pt idx="119">
                   <c:v>74088</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="120">
+                  <c:v>75076</c:v>
+                </c:pt>
+                <c:pt idx="121">
                   <c:v>85184</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="122">
+                  <c:v>85264</c:v>
+                </c:pt>
+                <c:pt idx="123">
                   <c:v>91125</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="124">
+                  <c:v>95481</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>100489</c:v>
+                </c:pt>
+                <c:pt idx="126">
                   <c:v>103823</c:v>
                 </c:pt>
-                <c:pt idx="120">
-                  <c:v>100489</c:v>
-                </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="127">
+                  <c:v>105625</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>205209</c:v>
+                </c:pt>
+                <c:pt idx="129">
                   <c:v>205379</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="130">
                   <c:v>300763</c:v>
                 </c:pt>
               </c:numCache>
@@ -1712,10 +1784,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$125</c:f>
+              <c:f>Sheet1!$E$3:$E$133</c:f>
               <c:numCache>
                 <c:formatCode>@</c:formatCode>
-                <c:ptCount val="123"/>
+                <c:ptCount val="131"/>
                 <c:pt idx="5" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1888,10 +1960,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$125</c:f>
+              <c:f>Sheet1!$B$3:$B$133</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="123"/>
+                <c:ptCount val="131"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -2235,30 +2307,54 @@
                   <c:v>42875</c:v>
                 </c:pt>
                 <c:pt idx="114">
+                  <c:v>45369</c:v>
+                </c:pt>
+                <c:pt idx="115">
                   <c:v>50653</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="116">
+                  <c:v>55225</c:v>
+                </c:pt>
+                <c:pt idx="117">
                   <c:v>64000</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="118">
+                  <c:v>65025</c:v>
+                </c:pt>
+                <c:pt idx="119">
                   <c:v>74088</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="120">
+                  <c:v>75076</c:v>
+                </c:pt>
+                <c:pt idx="121">
                   <c:v>85184</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="122">
+                  <c:v>85264</c:v>
+                </c:pt>
+                <c:pt idx="123">
                   <c:v>91125</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="124">
+                  <c:v>95481</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>100489</c:v>
+                </c:pt>
+                <c:pt idx="126">
                   <c:v>103823</c:v>
                 </c:pt>
-                <c:pt idx="120">
-                  <c:v>100489</c:v>
-                </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="127">
+                  <c:v>105625</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>205209</c:v>
+                </c:pt>
+                <c:pt idx="129">
                   <c:v>205379</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="130">
                   <c:v>300763</c:v>
                 </c:pt>
               </c:numCache>
@@ -2266,10 +2362,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$3:$G$125</c:f>
+              <c:f>Sheet1!$G$3:$G$133</c:f>
               <c:numCache>
                 <c:formatCode>@</c:formatCode>
-                <c:ptCount val="123"/>
+                <c:ptCount val="131"/>
                 <c:pt idx="5" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2397,10 +2493,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$125</c:f>
+              <c:f>Sheet1!$B$3:$B$133</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="123"/>
+                <c:ptCount val="131"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -2744,30 +2840,54 @@
                   <c:v>42875</c:v>
                 </c:pt>
                 <c:pt idx="114">
+                  <c:v>45369</c:v>
+                </c:pt>
+                <c:pt idx="115">
                   <c:v>50653</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="116">
+                  <c:v>55225</c:v>
+                </c:pt>
+                <c:pt idx="117">
                   <c:v>64000</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="118">
+                  <c:v>65025</c:v>
+                </c:pt>
+                <c:pt idx="119">
                   <c:v>74088</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="120">
+                  <c:v>75076</c:v>
+                </c:pt>
+                <c:pt idx="121">
                   <c:v>85184</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="122">
+                  <c:v>85264</c:v>
+                </c:pt>
+                <c:pt idx="123">
                   <c:v>91125</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="124">
+                  <c:v>95481</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>100489</c:v>
+                </c:pt>
+                <c:pt idx="126">
                   <c:v>103823</c:v>
                 </c:pt>
-                <c:pt idx="120">
-                  <c:v>100489</c:v>
-                </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="127">
+                  <c:v>105625</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>205209</c:v>
+                </c:pt>
+                <c:pt idx="129">
                   <c:v>205379</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="130">
                   <c:v>300763</c:v>
                 </c:pt>
               </c:numCache>
@@ -2775,10 +2895,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$3:$H$125</c:f>
+              <c:f>Sheet1!$H$3:$H$133</c:f>
               <c:numCache>
                 <c:formatCode>@</c:formatCode>
-                <c:ptCount val="123"/>
+                <c:ptCount val="131"/>
                 <c:pt idx="6" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2818,28 +2938,28 @@
                 <c:pt idx="113" formatCode="General">
                   <c:v>3.8520599999999998</c:v>
                 </c:pt>
-                <c:pt idx="114" formatCode="General">
+                <c:pt idx="115" formatCode="General">
                   <c:v>3.97126</c:v>
                 </c:pt>
-                <c:pt idx="115" formatCode="General">
+                <c:pt idx="117" formatCode="General">
                   <c:v>4.2911099999999998</c:v>
                 </c:pt>
-                <c:pt idx="116" formatCode="General">
+                <c:pt idx="119" formatCode="General">
                   <c:v>4.4571699999999996</c:v>
                 </c:pt>
-                <c:pt idx="117" formatCode="General">
+                <c:pt idx="121" formatCode="General">
                   <c:v>4.5895700000000001</c:v>
                 </c:pt>
-                <c:pt idx="118" formatCode="General">
+                <c:pt idx="123" formatCode="General">
                   <c:v>4.6817700000000002</c:v>
                 </c:pt>
-                <c:pt idx="119" formatCode="General">
+                <c:pt idx="126" formatCode="General">
                   <c:v>4.7963300000000002</c:v>
                 </c:pt>
-                <c:pt idx="121" formatCode="General">
+                <c:pt idx="129" formatCode="General">
                   <c:v>5.67401</c:v>
                 </c:pt>
-                <c:pt idx="122" formatCode="General">
+                <c:pt idx="130" formatCode="General">
                   <c:v>6.59</c:v>
                 </c:pt>
               </c:numCache>
@@ -2879,10 +2999,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$125</c:f>
+              <c:f>Sheet1!$B$3:$B$133</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="123"/>
+                <c:ptCount val="131"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -3226,30 +3346,54 @@
                   <c:v>42875</c:v>
                 </c:pt>
                 <c:pt idx="114">
+                  <c:v>45369</c:v>
+                </c:pt>
+                <c:pt idx="115">
                   <c:v>50653</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="116">
+                  <c:v>55225</c:v>
+                </c:pt>
+                <c:pt idx="117">
                   <c:v>64000</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="118">
+                  <c:v>65025</c:v>
+                </c:pt>
+                <c:pt idx="119">
                   <c:v>74088</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="120">
+                  <c:v>75076</c:v>
+                </c:pt>
+                <c:pt idx="121">
                   <c:v>85184</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="122">
+                  <c:v>85264</c:v>
+                </c:pt>
+                <c:pt idx="123">
                   <c:v>91125</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="124">
+                  <c:v>95481</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>100489</c:v>
+                </c:pt>
+                <c:pt idx="126">
                   <c:v>103823</c:v>
                 </c:pt>
-                <c:pt idx="120">
-                  <c:v>100489</c:v>
-                </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="127">
+                  <c:v>105625</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>205209</c:v>
+                </c:pt>
+                <c:pt idx="129">
                   <c:v>205379</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="130">
                   <c:v>300763</c:v>
                 </c:pt>
               </c:numCache>
@@ -3257,10 +3401,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$125</c:f>
+              <c:f>Sheet1!$F$3:$F$133</c:f>
               <c:numCache>
                 <c:formatCode>@</c:formatCode>
-                <c:ptCount val="123"/>
+                <c:ptCount val="131"/>
                 <c:pt idx="5" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3300,11 +3444,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="351923912"/>
-        <c:axId val="353585752"/>
+        <c:axId val="355682448"/>
+        <c:axId val="355684016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="351923912"/>
+        <c:axId val="355682448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3403,7 +3547,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="353585752"/>
+        <c:crossAx val="355684016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3411,7 +3555,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="353585752"/>
+        <c:axId val="355684016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3518,7 +3662,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="351923912"/>
+        <c:crossAx val="355682448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3707,10 +3851,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$125</c:f>
+              <c:f>Sheet1!$B$3:$B$133</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="123"/>
+                <c:ptCount val="131"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -4054,30 +4198,54 @@
                   <c:v>42875</c:v>
                 </c:pt>
                 <c:pt idx="114">
+                  <c:v>45369</c:v>
+                </c:pt>
+                <c:pt idx="115">
                   <c:v>50653</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="116">
+                  <c:v>55225</c:v>
+                </c:pt>
+                <c:pt idx="117">
                   <c:v>64000</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="118">
+                  <c:v>65025</c:v>
+                </c:pt>
+                <c:pt idx="119">
                   <c:v>74088</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="120">
+                  <c:v>75076</c:v>
+                </c:pt>
+                <c:pt idx="121">
                   <c:v>85184</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="122">
+                  <c:v>85264</c:v>
+                </c:pt>
+                <c:pt idx="123">
                   <c:v>91125</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="124">
+                  <c:v>95481</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>100489</c:v>
+                </c:pt>
+                <c:pt idx="126">
                   <c:v>103823</c:v>
                 </c:pt>
-                <c:pt idx="120">
-                  <c:v>100489</c:v>
-                </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="127">
+                  <c:v>105625</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>205209</c:v>
+                </c:pt>
+                <c:pt idx="129">
                   <c:v>205379</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="130">
                   <c:v>300763</c:v>
                 </c:pt>
               </c:numCache>
@@ -4085,10 +4253,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$3:$J$125</c:f>
+              <c:f>Sheet1!$J$3:$J$133</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="123"/>
+                <c:ptCount val="131"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4198,10 +4366,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$125</c:f>
+              <c:f>Sheet1!$B$3:$B$133</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="123"/>
+                <c:ptCount val="131"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -4545,30 +4713,54 @@
                   <c:v>42875</c:v>
                 </c:pt>
                 <c:pt idx="114">
+                  <c:v>45369</c:v>
+                </c:pt>
+                <c:pt idx="115">
                   <c:v>50653</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="116">
+                  <c:v>55225</c:v>
+                </c:pt>
+                <c:pt idx="117">
                   <c:v>64000</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="118">
+                  <c:v>65025</c:v>
+                </c:pt>
+                <c:pt idx="119">
                   <c:v>74088</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="120">
+                  <c:v>75076</c:v>
+                </c:pt>
+                <c:pt idx="121">
                   <c:v>85184</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="122">
+                  <c:v>85264</c:v>
+                </c:pt>
+                <c:pt idx="123">
                   <c:v>91125</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="124">
+                  <c:v>95481</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>100489</c:v>
+                </c:pt>
+                <c:pt idx="126">
                   <c:v>103823</c:v>
                 </c:pt>
-                <c:pt idx="120">
-                  <c:v>100489</c:v>
-                </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="127">
+                  <c:v>105625</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>205209</c:v>
+                </c:pt>
+                <c:pt idx="129">
                   <c:v>205379</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="130">
                   <c:v>300763</c:v>
                 </c:pt>
               </c:numCache>
@@ -4577,10 +4769,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$3:$K$125</c:f>
+              <c:f>Sheet1!$K$3:$K$133</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="123"/>
+                <c:ptCount val="131"/>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4644,7 +4836,7 @@
                 <c:pt idx="78">
                   <c:v>0.68652899999999994</c:v>
                 </c:pt>
-                <c:pt idx="120">
+                <c:pt idx="125">
                   <c:v>1.7864169999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -4685,10 +4877,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$125</c:f>
+              <c:f>Sheet1!$B$3:$B$133</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="123"/>
+                <c:ptCount val="131"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -5032,30 +5224,54 @@
                   <c:v>42875</c:v>
                 </c:pt>
                 <c:pt idx="114">
+                  <c:v>45369</c:v>
+                </c:pt>
+                <c:pt idx="115">
                   <c:v>50653</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="116">
+                  <c:v>55225</c:v>
+                </c:pt>
+                <c:pt idx="117">
                   <c:v>64000</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="118">
+                  <c:v>65025</c:v>
+                </c:pt>
+                <c:pt idx="119">
                   <c:v>74088</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="120">
+                  <c:v>75076</c:v>
+                </c:pt>
+                <c:pt idx="121">
                   <c:v>85184</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="122">
+                  <c:v>85264</c:v>
+                </c:pt>
+                <c:pt idx="123">
                   <c:v>91125</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="124">
+                  <c:v>95481</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>100489</c:v>
+                </c:pt>
+                <c:pt idx="126">
                   <c:v>103823</c:v>
                 </c:pt>
-                <c:pt idx="120">
-                  <c:v>100489</c:v>
-                </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="127">
+                  <c:v>105625</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>205209</c:v>
+                </c:pt>
+                <c:pt idx="129">
                   <c:v>205379</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="130">
                   <c:v>300763</c:v>
                 </c:pt>
               </c:numCache>
@@ -5063,10 +5279,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$3:$L$125</c:f>
+              <c:f>Sheet1!$L$3:$L$133</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="123"/>
+                <c:ptCount val="131"/>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5118,22 +5334,22 @@
                 <c:pt idx="113">
                   <c:v>1.2287454240932043</c:v>
                 </c:pt>
-                <c:pt idx="114">
+                <c:pt idx="115">
                   <c:v>1.2884979902903051</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="117">
                   <c:v>1.4253534713915326</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="119">
                   <c:v>1.5133950383885446</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="121">
                   <c:v>1.5381709953493281</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="123">
                   <c:v>1.5331952633226487</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="126">
                   <c:v>2.1273930000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -5173,10 +5389,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$125</c:f>
+              <c:f>Sheet1!$B$3:$B$133</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="123"/>
+                <c:ptCount val="131"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -5520,30 +5736,54 @@
                   <c:v>42875</c:v>
                 </c:pt>
                 <c:pt idx="114">
+                  <c:v>45369</c:v>
+                </c:pt>
+                <c:pt idx="115">
                   <c:v>50653</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="116">
+                  <c:v>55225</c:v>
+                </c:pt>
+                <c:pt idx="117">
                   <c:v>64000</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="118">
+                  <c:v>65025</c:v>
+                </c:pt>
+                <c:pt idx="119">
                   <c:v>74088</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="120">
+                  <c:v>75076</c:v>
+                </c:pt>
+                <c:pt idx="121">
                   <c:v>85184</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="122">
+                  <c:v>85264</c:v>
+                </c:pt>
+                <c:pt idx="123">
                   <c:v>91125</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="124">
+                  <c:v>95481</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>100489</c:v>
+                </c:pt>
+                <c:pt idx="126">
                   <c:v>103823</c:v>
                 </c:pt>
-                <c:pt idx="120">
-                  <c:v>100489</c:v>
-                </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="127">
+                  <c:v>105625</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>205209</c:v>
+                </c:pt>
+                <c:pt idx="129">
                   <c:v>205379</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="130">
                   <c:v>300763</c:v>
                 </c:pt>
               </c:numCache>
@@ -5552,24 +5792,126 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$3:$M$125</c:f>
+              <c:f>Sheet1!$M$3:$M$133</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="123"/>
+                <c:ptCount val="131"/>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="24">
+                  <c:v>5.1077624318655465E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.27429547085506945</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.31112814891898549</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.24001602826950505</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.59047310143304821</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.47322371630407112</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.4905547082226831</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.51092040728651489</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.71568310922401601</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.60144380006461717</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.60131958343156777</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.92657495725097339</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.68199826607705716</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.98838304237963814</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.79032398723916319</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>0.73226599999999997</c:v>
                 </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.96013881417720048</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.1614059479111796</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.3908740176992924</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.5451400690754507</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.6739734897954159</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.6956908927319843</c:v>
+                </c:pt>
                 <c:pt idx="120">
+                  <c:v>1.7020188598790844</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.7417877636779429</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.8891523319326773</c:v>
+                </c:pt>
+                <c:pt idx="125">
                   <c:v>1.875286</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.8997290993698215</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2.1757031874447921</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -5609,10 +5951,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$125</c:f>
+              <c:f>Sheet1!$B$3:$B$133</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="123"/>
+                <c:ptCount val="131"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -5956,30 +6298,54 @@
                   <c:v>42875</c:v>
                 </c:pt>
                 <c:pt idx="114">
+                  <c:v>45369</c:v>
+                </c:pt>
+                <c:pt idx="115">
                   <c:v>50653</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="116">
+                  <c:v>55225</c:v>
+                </c:pt>
+                <c:pt idx="117">
                   <c:v>64000</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="118">
+                  <c:v>65025</c:v>
+                </c:pt>
+                <c:pt idx="119">
                   <c:v>74088</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="120">
+                  <c:v>75076</c:v>
+                </c:pt>
+                <c:pt idx="121">
                   <c:v>85184</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="122">
+                  <c:v>85264</c:v>
+                </c:pt>
+                <c:pt idx="123">
                   <c:v>91125</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="124">
+                  <c:v>95481</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>100489</c:v>
+                </c:pt>
+                <c:pt idx="126">
                   <c:v>103823</c:v>
                 </c:pt>
-                <c:pt idx="120">
-                  <c:v>100489</c:v>
-                </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="127">
+                  <c:v>105625</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>205209</c:v>
+                </c:pt>
+                <c:pt idx="129">
                   <c:v>205379</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="130">
                   <c:v>300763</c:v>
                 </c:pt>
               </c:numCache>
@@ -5987,10 +6353,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$3:$N$125</c:f>
+              <c:f>Sheet1!$N$3:$N$133</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="123"/>
+                <c:ptCount val="131"/>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6039,22 +6405,22 @@
                 <c:pt idx="113">
                   <c:v>1.2197187229049096</c:v>
                 </c:pt>
-                <c:pt idx="114">
+                <c:pt idx="115">
                   <c:v>1.3398066025952082</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="117">
                   <c:v>1.4710526659412606</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="119">
                   <c:v>1.5529771365445766</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="121">
                   <c:v>1.960211617165541</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="123">
                   <c:v>2.1669524184314453</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="126">
                   <c:v>2.499571</c:v>
                 </c:pt>
               </c:numCache>
@@ -6094,10 +6460,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$125</c:f>
+              <c:f>Sheet1!$B$3:$B$133</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="123"/>
+                <c:ptCount val="131"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -6441,30 +6807,54 @@
                   <c:v>42875</c:v>
                 </c:pt>
                 <c:pt idx="114">
+                  <c:v>45369</c:v>
+                </c:pt>
+                <c:pt idx="115">
                   <c:v>50653</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="116">
+                  <c:v>55225</c:v>
+                </c:pt>
+                <c:pt idx="117">
                   <c:v>64000</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="118">
+                  <c:v>65025</c:v>
+                </c:pt>
+                <c:pt idx="119">
                   <c:v>74088</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="120">
+                  <c:v>75076</c:v>
+                </c:pt>
+                <c:pt idx="121">
                   <c:v>85184</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="122">
+                  <c:v>85264</c:v>
+                </c:pt>
+                <c:pt idx="123">
                   <c:v>91125</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="124">
+                  <c:v>95481</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>100489</c:v>
+                </c:pt>
+                <c:pt idx="126">
                   <c:v>103823</c:v>
                 </c:pt>
-                <c:pt idx="120">
-                  <c:v>100489</c:v>
-                </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="127">
+                  <c:v>105625</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>205209</c:v>
+                </c:pt>
+                <c:pt idx="129">
                   <c:v>205379</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="130">
                   <c:v>300763</c:v>
                 </c:pt>
               </c:numCache>
@@ -6472,10 +6862,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$3:$O$125</c:f>
+              <c:f>Sheet1!$O$3:$O$133</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="123"/>
+                <c:ptCount val="131"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6515,12 +6905,12 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="353580656"/>
-        <c:axId val="353581048"/>
+        <c:axId val="355683232"/>
+        <c:axId val="357348168"/>
         <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="353580656"/>
+        <c:axId val="355683232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6619,7 +7009,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="353581048"/>
+        <c:crossAx val="357348168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6627,7 +7017,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="353581048"/>
+        <c:axId val="357348168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6734,7 +7124,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="353580656"/>
+        <c:crossAx val="355683232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8229,11 +8619,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O140"/>
+  <dimension ref="A1:O148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N54" sqref="N54"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L129" sqref="L129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8378,7 +8768,7 @@
       <c r="K8" s="8">
         <v>0</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8">
         <v>0</v>
       </c>
       <c r="O8" s="8"/>
@@ -8436,6 +8826,9 @@
         <v>0</v>
       </c>
       <c r="H11"/>
+      <c r="M11">
+        <v>0</v>
+      </c>
       <c r="O11" s="8"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -8470,6 +8863,9 @@
         <v>0</v>
       </c>
       <c r="H13"/>
+      <c r="M13">
+        <v>0</v>
+      </c>
       <c r="O13" s="8"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -8507,6 +8903,9 @@
       <c r="J15">
         <f>LOG10(3.787487)</f>
         <v>0.5783511508600766</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -8540,6 +8939,9 @@
         <v>0</v>
       </c>
       <c r="H17"/>
+      <c r="M17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18">
@@ -8582,6 +8984,9 @@
         <v>0</v>
       </c>
       <c r="H19"/>
+      <c r="M19">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20">
@@ -8614,6 +9019,9 @@
         <v>0</v>
       </c>
       <c r="H21"/>
+      <c r="M21">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22">
@@ -8646,6 +9054,9 @@
         <v>0</v>
       </c>
       <c r="H23"/>
+      <c r="M23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24">
@@ -8682,6 +9093,9 @@
       <c r="J25">
         <f>LOG10(14.44571)</f>
         <v>1.1597388920787564</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
@@ -8726,8 +9140,9 @@
       <c r="K27" s="8">
         <v>0</v>
       </c>
-      <c r="M27" s="8">
-        <v>0</v>
+      <c r="M27">
+        <f>LOG10(1.124806)</f>
+        <v>5.1077624318655465E-2</v>
       </c>
       <c r="O27">
         <f>LOG10(1.752106)</f>
@@ -8807,6 +9222,10 @@
       <c r="J31">
         <f>LOG10(13.909605)</f>
         <v>1.1433147972274107</v>
+      </c>
+      <c r="M31">
+        <f>LOG10(1.880595839)</f>
+        <v>0.27429547085506945</v>
       </c>
       <c r="O31" s="10"/>
     </row>
@@ -8856,6 +9275,9 @@
         <v>0.98421700000000001</v>
       </c>
       <c r="H34"/>
+      <c r="M34">
+        <v>0</v>
+      </c>
       <c r="O34" s="10"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
@@ -8913,6 +9335,10 @@
         <v>0.94357800000000003</v>
       </c>
       <c r="H37"/>
+      <c r="M37">
+        <f>LOG10(2.047048578)</f>
+        <v>0.31112814891898549</v>
+      </c>
       <c r="O37" s="10"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
@@ -8949,6 +9375,10 @@
         <v>1.2785599999999999</v>
       </c>
       <c r="H39"/>
+      <c r="M39">
+        <f>LOG10(1.737864966)</f>
+        <v>0.24001602826950505</v>
+      </c>
       <c r="O39" s="10"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
@@ -8998,6 +9428,10 @@
       <c r="K41">
         <f>LOG10(1.680372)</f>
         <v>0.22540543628727924</v>
+      </c>
+      <c r="M41">
+        <f>LOG10(3.894691847)</f>
+        <v>0.59047310143304821</v>
       </c>
       <c r="O41" s="10"/>
     </row>
@@ -9059,6 +9493,10 @@
         <v>1.722</v>
       </c>
       <c r="H44"/>
+      <c r="M44">
+        <f>LOG10(2.973197208)</f>
+        <v>0.47322371630407112</v>
+      </c>
       <c r="O44" s="10"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
@@ -9094,6 +9532,10 @@
       <c r="K46">
         <f>LOG10(3.56983)</f>
         <v>0.55264753493016572</v>
+      </c>
+      <c r="M46">
+        <f>LOG10(3.094245074)</f>
+        <v>0.4905547082226831</v>
       </c>
       <c r="O46" s="10"/>
     </row>
@@ -9269,6 +9711,10 @@
         <f>LOG10(2.79907)</f>
         <v>0.44701375957141287</v>
       </c>
+      <c r="M56">
+        <f>LOG10(3.242801814)</f>
+        <v>0.51092040728651489</v>
+      </c>
       <c r="O56" s="10"/>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.25">
@@ -9375,6 +9821,10 @@
         <f>LOG10(6.125194)</f>
         <v>0.78711984843170846</v>
       </c>
+      <c r="M62">
+        <f>LOG10(5.196167105)</f>
+        <v>0.71568310922401601</v>
+      </c>
       <c r="O62" s="10"/>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.25">
@@ -9501,6 +9951,10 @@
         <v>2.0879500000000002</v>
       </c>
       <c r="H69"/>
+      <c r="M69">
+        <f>LOG10(3.994328693)</f>
+        <v>0.60144380006461717</v>
+      </c>
       <c r="O69" s="10"/>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.25">
@@ -9537,6 +9991,10 @@
         <v>2.2751999999999999</v>
       </c>
       <c r="H71"/>
+      <c r="M71">
+        <f>LOG10(3.993186401)</f>
+        <v>0.60131958343156777</v>
+      </c>
       <c r="O71" s="10"/>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.25">
@@ -9583,6 +10041,10 @@
         <f>LOG10(232.642858)</f>
         <v>2.3666897244867378</v>
       </c>
+      <c r="M73">
+        <f>LOG10(8.444519779)</f>
+        <v>0.92657495725097339</v>
+      </c>
       <c r="O73" s="10"/>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.25">
@@ -9613,6 +10075,10 @@
         <v>2.2058800000000001</v>
       </c>
       <c r="H75"/>
+      <c r="M75">
+        <f>LOG10(4.808374287)</f>
+        <v>0.68199826607705716</v>
+      </c>
       <c r="O75" s="10"/>
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.25">
@@ -9649,6 +10115,10 @@
         <v>2.84788</v>
       </c>
       <c r="H77"/>
+      <c r="M77">
+        <f>LOG10(9.736055533)</f>
+        <v>0.98838304237963814</v>
+      </c>
       <c r="O77" s="10"/>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.25">
@@ -9701,6 +10171,10 @@
         <v>2.5167199999999998</v>
       </c>
       <c r="H80"/>
+      <c r="M80">
+        <f>LOG10(6.170551584)</f>
+        <v>0.79032398723916319</v>
+      </c>
       <c r="O80" s="10"/>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.25">
@@ -9932,6 +10406,10 @@
         <v>3.0066999999999999</v>
       </c>
       <c r="H94"/>
+      <c r="M94">
+        <f>LOG10(9.123023933)</f>
+        <v>0.96013881417720048</v>
+      </c>
       <c r="O94" s="10"/>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.25">
@@ -10184,6 +10662,10 @@
         <v>3.5022199999999999</v>
       </c>
       <c r="H111"/>
+      <c r="M111">
+        <f>LOG10(14.501266966)</f>
+        <v>1.1614059479111796</v>
+      </c>
       <c r="O111" s="10"/>
     </row>
     <row r="112" spans="2:15" x14ac:dyDescent="0.25">
@@ -10236,6 +10718,10 @@
         <v>3.9498099999999998</v>
       </c>
       <c r="H114"/>
+      <c r="M114">
+        <f>LOG10(24.59653992)</f>
+        <v>1.3908740176992924</v>
+      </c>
       <c r="O114" s="10"/>
     </row>
     <row r="115" spans="2:15" x14ac:dyDescent="0.25">
@@ -10276,29 +10762,23 @@
     </row>
     <row r="117" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B117">
-        <v>50653</v>
+        <v>45369</v>
       </c>
       <c r="C117"/>
       <c r="D117"/>
       <c r="E117"/>
       <c r="F117"/>
       <c r="G117"/>
-      <c r="H117">
-        <v>3.97126</v>
-      </c>
-      <c r="L117">
-        <f>LOG10(19.431127)</f>
-        <v>1.2884979902903051</v>
-      </c>
-      <c r="N117">
-        <f>LOG10(21.867876)</f>
-        <v>1.3398066025952082</v>
+      <c r="H117"/>
+      <c r="M117">
+        <f>LOG10(35.086501703)</f>
+        <v>1.5451400690754507</v>
       </c>
       <c r="O117" s="10"/>
     </row>
     <row r="118" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B118">
-        <v>64000</v>
+        <v>50653</v>
       </c>
       <c r="C118"/>
       <c r="D118"/>
@@ -10306,43 +10786,37 @@
       <c r="F118"/>
       <c r="G118"/>
       <c r="H118">
-        <v>4.2911099999999998</v>
+        <v>3.97126</v>
       </c>
       <c r="L118">
-        <f>LOG10(26.628915)</f>
-        <v>1.4253534713915326</v>
+        <f>LOG10(19.431127)</f>
+        <v>1.2884979902903051</v>
       </c>
       <c r="N118">
-        <f>LOG10(29.583712)</f>
-        <v>1.4710526659412606</v>
+        <f>LOG10(21.867876)</f>
+        <v>1.3398066025952082</v>
       </c>
       <c r="O118" s="10"/>
     </row>
     <row r="119" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B119">
-        <v>74088</v>
+        <v>55225</v>
       </c>
       <c r="C119"/>
       <c r="D119"/>
       <c r="E119"/>
       <c r="F119"/>
       <c r="G119"/>
-      <c r="H119">
-        <v>4.4571699999999996</v>
-      </c>
-      <c r="L119">
-        <f>LOG10(32.613322)</f>
-        <v>1.5133950383885446</v>
-      </c>
-      <c r="N119">
-        <f>LOG10(35.725403)</f>
-        <v>1.5529771365445766</v>
+      <c r="H119"/>
+      <c r="M119">
+        <f>LOG10(47.203422647)</f>
+        <v>1.6739734897954159</v>
       </c>
       <c r="O119" s="10"/>
     </row>
     <row r="120" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B120">
-        <v>85184</v>
+        <v>64000</v>
       </c>
       <c r="C120"/>
       <c r="D120"/>
@@ -10350,43 +10824,37 @@
       <c r="F120"/>
       <c r="G120"/>
       <c r="H120">
-        <v>4.5895700000000001</v>
+        <v>4.2911099999999998</v>
       </c>
       <c r="L120">
-        <f>LOG10(34.527966)</f>
-        <v>1.5381709953493281</v>
+        <f>LOG10(26.628915)</f>
+        <v>1.4253534713915326</v>
       </c>
       <c r="N120">
-        <f>LOG10(91.245534)</f>
-        <v>1.960211617165541</v>
+        <f>LOG10(29.583712)</f>
+        <v>1.4710526659412606</v>
       </c>
       <c r="O120" s="10"/>
     </row>
     <row r="121" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B121">
-        <v>91125</v>
+        <v>65025</v>
       </c>
       <c r="C121"/>
       <c r="D121"/>
       <c r="E121"/>
       <c r="F121"/>
       <c r="G121"/>
-      <c r="H121">
-        <v>4.6817700000000002</v>
-      </c>
-      <c r="L121">
-        <f>LOG10(34.134635)</f>
-        <v>1.5331952633226487</v>
-      </c>
-      <c r="N121">
-        <f>LOG10(146.876535)</f>
-        <v>2.1669524184314453</v>
+      <c r="H121"/>
+      <c r="M121">
+        <f>LOG10(49.623899971)</f>
+        <v>1.6956908927319843</v>
       </c>
       <c r="O121" s="10"/>
     </row>
     <row r="122" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B122">
-        <v>103823</v>
+        <v>74088</v>
       </c>
       <c r="C122"/>
       <c r="D122"/>
@@ -10394,19 +10862,21 @@
       <c r="F122"/>
       <c r="G122"/>
       <c r="H122">
-        <v>4.7963300000000002</v>
-      </c>
-      <c r="L122" s="8">
-        <v>2.1273930000000001</v>
-      </c>
-      <c r="N122" s="8">
-        <v>2.499571</v>
+        <v>4.4571699999999996</v>
+      </c>
+      <c r="L122">
+        <f>LOG10(32.613322)</f>
+        <v>1.5133950383885446</v>
+      </c>
+      <c r="N122">
+        <f>LOG10(35.725403)</f>
+        <v>1.5529771365445766</v>
       </c>
       <c r="O122" s="10"/>
     </row>
     <row r="123" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B123">
-        <v>100489</v>
+        <v>75076</v>
       </c>
       <c r="C123"/>
       <c r="D123"/>
@@ -10414,17 +10884,15 @@
       <c r="F123"/>
       <c r="G123"/>
       <c r="H123"/>
-      <c r="K123" s="8">
-        <v>1.7864169999999999</v>
-      </c>
-      <c r="M123" s="8">
-        <v>1.875286</v>
+      <c r="M123">
+        <f>LOG10(50.352247452)</f>
+        <v>1.7020188598790844</v>
       </c>
       <c r="O123" s="10"/>
     </row>
     <row r="124" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B124">
-        <v>205379</v>
+        <v>85184</v>
       </c>
       <c r="C124"/>
       <c r="D124"/>
@@ -10432,68 +10900,220 @@
       <c r="F124"/>
       <c r="G124"/>
       <c r="H124">
-        <v>5.67401</v>
+        <v>4.5895700000000001</v>
+      </c>
+      <c r="L124">
+        <f>LOG10(34.527966)</f>
+        <v>1.5381709953493281</v>
+      </c>
+      <c r="N124">
+        <f>LOG10(91.245534)</f>
+        <v>1.960211617165541</v>
       </c>
       <c r="O124" s="10"/>
     </row>
     <row r="125" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B125">
-        <v>300763</v>
+        <v>85264</v>
       </c>
       <c r="C125"/>
       <c r="D125"/>
       <c r="E125"/>
       <c r="F125"/>
       <c r="G125"/>
-      <c r="H125">
+      <c r="H125"/>
+      <c r="M125">
+        <f>LOG10(55.180770926)</f>
+        <v>1.7417877636779429</v>
+      </c>
+      <c r="O125" s="10"/>
+    </row>
+    <row r="126" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B126">
+        <v>91125</v>
+      </c>
+      <c r="C126"/>
+      <c r="D126"/>
+      <c r="E126"/>
+      <c r="F126"/>
+      <c r="G126"/>
+      <c r="H126">
+        <v>4.6817700000000002</v>
+      </c>
+      <c r="L126">
+        <f>LOG10(34.134635)</f>
+        <v>1.5331952633226487</v>
+      </c>
+      <c r="N126">
+        <f>LOG10(146.876535)</f>
+        <v>2.1669524184314453</v>
+      </c>
+      <c r="O126" s="10"/>
+    </row>
+    <row r="127" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B127">
+        <v>95481</v>
+      </c>
+      <c r="C127"/>
+      <c r="D127"/>
+      <c r="E127"/>
+      <c r="F127"/>
+      <c r="G127"/>
+      <c r="H127"/>
+      <c r="M127">
+        <f>LOG10(77.473349353)</f>
+        <v>1.8891523319326773</v>
+      </c>
+      <c r="O127" s="10"/>
+    </row>
+    <row r="128" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B128">
+        <v>100489</v>
+      </c>
+      <c r="C128"/>
+      <c r="D128"/>
+      <c r="E128"/>
+      <c r="F128"/>
+      <c r="G128"/>
+      <c r="H128"/>
+      <c r="K128" s="8">
+        <v>1.7864169999999999</v>
+      </c>
+      <c r="M128" s="8">
+        <v>1.875286</v>
+      </c>
+      <c r="O128" s="10"/>
+    </row>
+    <row r="129" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B129">
+        <v>103823</v>
+      </c>
+      <c r="C129"/>
+      <c r="D129"/>
+      <c r="E129"/>
+      <c r="F129"/>
+      <c r="G129"/>
+      <c r="H129">
+        <v>4.7963300000000002</v>
+      </c>
+      <c r="L129" s="8">
+        <v>2.1273930000000001</v>
+      </c>
+      <c r="N129" s="8">
+        <v>2.499571</v>
+      </c>
+      <c r="O129" s="10"/>
+    </row>
+    <row r="130" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B130">
+        <v>105625</v>
+      </c>
+      <c r="C130"/>
+      <c r="D130"/>
+      <c r="E130"/>
+      <c r="F130"/>
+      <c r="G130"/>
+      <c r="H130"/>
+      <c r="L130" s="8"/>
+      <c r="M130">
+        <f>LOG10(79.383290971)</f>
+        <v>1.8997290993698215</v>
+      </c>
+      <c r="N130" s="8"/>
+      <c r="O130" s="10"/>
+    </row>
+    <row r="131" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B131">
+        <v>205209</v>
+      </c>
+      <c r="C131"/>
+      <c r="D131"/>
+      <c r="E131"/>
+      <c r="F131"/>
+      <c r="G131"/>
+      <c r="H131"/>
+      <c r="L131" s="8"/>
+      <c r="M131">
+        <f>LOG10(149.866024681)</f>
+        <v>2.1757031874447921</v>
+      </c>
+      <c r="N131" s="8"/>
+      <c r="O131" s="10"/>
+    </row>
+    <row r="132" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B132">
+        <v>205379</v>
+      </c>
+      <c r="C132"/>
+      <c r="D132"/>
+      <c r="E132"/>
+      <c r="F132"/>
+      <c r="G132"/>
+      <c r="H132">
+        <v>5.67401</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c r="O132" s="10"/>
+    </row>
+    <row r="133" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B133">
+        <v>300763</v>
+      </c>
+      <c r="C133"/>
+      <c r="D133"/>
+      <c r="E133"/>
+      <c r="F133"/>
+      <c r="G133"/>
+      <c r="H133">
         <v>6.59</v>
       </c>
-      <c r="O125" s="10"/>
-    </row>
-    <row r="126" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D126"/>
-    </row>
-    <row r="127" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D127"/>
-    </row>
-    <row r="128" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D128"/>
-    </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D129"/>
-    </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D130"/>
-    </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D131"/>
-    </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D132"/>
-    </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D133"/>
-    </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="M133" s="10"/>
+      <c r="O133" s="10"/>
+    </row>
+    <row r="134" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D134"/>
     </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D135"/>
     </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D136"/>
     </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D137"/>
     </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D138"/>
     </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D139"/>
     </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D140"/>
+    </row>
+    <row r="141" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D141"/>
+    </row>
+    <row r="142" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D142"/>
+    </row>
+    <row r="143" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D143"/>
+    </row>
+    <row r="144" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D144"/>
+    </row>
+    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D145"/>
+    </row>
+    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D146"/>
+    </row>
+    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D147"/>
+    </row>
+    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D148"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Project2/report.xlsx
+++ b/Project2/report.xlsx
@@ -3444,11 +3444,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="355682448"/>
-        <c:axId val="355684016"/>
+        <c:axId val="354432872"/>
+        <c:axId val="354433656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="355682448"/>
+        <c:axId val="354432872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3547,7 +3547,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355684016"/>
+        <c:crossAx val="354433656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3555,7 +3555,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="355684016"/>
+        <c:axId val="354433656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3662,7 +3662,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355682448"/>
+        <c:crossAx val="354432872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6905,12 +6905,12 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="355683232"/>
-        <c:axId val="357348168"/>
+        <c:axId val="354434048"/>
+        <c:axId val="354434440"/>
         <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="355683232"/>
+        <c:axId val="354434048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7009,7 +7009,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357348168"/>
+        <c:crossAx val="354434440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7017,7 +7017,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="357348168"/>
+        <c:axId val="354434440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7124,7 +7124,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355683232"/>
+        <c:crossAx val="354434048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8295,16 +8295,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8325,16 +8325,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>161923</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8621,9 +8621,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L129" sqref="L129"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P48" sqref="P48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
